--- a/backend/v1.0/mockDB/Devices_test.xlsx
+++ b/backend/v1.0/mockDB/Devices_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\Microrred-USC\Tests\Digital_twins\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\backend\v1.0\mockDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413C22BF-195D-496D-8F9B-8922488A3F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1364184-AFFF-4A4F-A4AB-223B18A4B55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydro" sheetId="1" r:id="rId1"/>
@@ -727,7 +727,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +818,7 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -832,7 +832,7 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
       </c>
       <c r="D11">
         <f>D13/D9</f>
-        <v>15</v>
+        <v>290.625</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -905,7 +905,7 @@
       </c>
       <c r="D12">
         <f>D13/D10</f>
-        <v>7.5</v>
+        <v>145.3125</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -920,7 +920,7 @@
       </c>
       <c r="D13">
         <f>D6*D7*0.75</f>
-        <v>600</v>
+        <v>11625</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -935,7 +935,7 @@
       </c>
       <c r="D14">
         <f>D6*D7*0.78</f>
-        <v>624</v>
+        <v>12090</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -964,7 +964,7 @@
       </c>
       <c r="D16">
         <f>D13*0.9/D15</f>
-        <v>21.513944223107568</v>
+        <v>416.83266932270914</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">

--- a/backend/v1.0/mockDB/Devices_test.xlsx
+++ b/backend/v1.0/mockDB/Devices_test.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\backend\v1.0\mockDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/mockDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1364184-AFFF-4A4F-A4AB-223B18A4B55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{C1364184-AFFF-4A4F-A4AB-223B18A4B55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A03D361-94ED-41BD-AE64-E880F40F7FB5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydro" sheetId="1" r:id="rId1"/>
-    <sheet name="PV_WF" sheetId="2" r:id="rId2"/>
+    <sheet name="BiogasPlant" sheetId="3" r:id="rId2"/>
+    <sheet name="PV_WF" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="231">
   <si>
     <t>Device</t>
   </si>
@@ -379,6 +380,357 @@
   </si>
   <si>
     <t>VCH002</t>
+  </si>
+  <si>
+    <t>Planta Biogas</t>
+  </si>
+  <si>
+    <t>Caudal bomba P-104</t>
+  </si>
+  <si>
+    <t>SE-104</t>
+  </si>
+  <si>
+    <t>Temperatura 1 Reactor 1</t>
+  </si>
+  <si>
+    <t>TE-101A</t>
+  </si>
+  <si>
+    <t>Temperatura 2 Reactor 1</t>
+  </si>
+  <si>
+    <t>TE-101B</t>
+  </si>
+  <si>
+    <t>Ph reactor 1</t>
+  </si>
+  <si>
+    <t>AT-101</t>
+  </si>
+  <si>
+    <t>Concentración CH4 V-101</t>
+  </si>
+  <si>
+    <t>AT-103A1</t>
+  </si>
+  <si>
+    <t>Concentracion CO2 V-101</t>
+  </si>
+  <si>
+    <t>AT-103A2</t>
+  </si>
+  <si>
+    <t>Concentración H2S V-101</t>
+  </si>
+  <si>
+    <t>AT-103A3</t>
+  </si>
+  <si>
+    <t>Concentración O2 V-101</t>
+  </si>
+  <si>
+    <t>AT-103A4</t>
+  </si>
+  <si>
+    <t>Concentracion H2 V-101</t>
+  </si>
+  <si>
+    <t>AT-103A5</t>
+  </si>
+  <si>
+    <t>Humedad relativa biogás V-101</t>
+  </si>
+  <si>
+    <t>AT-103B</t>
+  </si>
+  <si>
+    <t>Sólidos totales sustrato</t>
+  </si>
+  <si>
+    <t>M-ST</t>
+  </si>
+  <si>
+    <t>Sólidos volátiles del sustrato</t>
+  </si>
+  <si>
+    <t>M-SV</t>
+  </si>
+  <si>
+    <t>Concentración de carbono átomico en base seca</t>
+  </si>
+  <si>
+    <t>M-Cc</t>
+  </si>
+  <si>
+    <t>Conentración de hidrógeno átomico en base seca</t>
+  </si>
+  <si>
+    <t>M-Ch</t>
+  </si>
+  <si>
+    <t>Concentración de oxígeno átomico en base seca</t>
+  </si>
+  <si>
+    <t>M-Co</t>
+  </si>
+  <si>
+    <t>Concentración de nitrógeno atómico en base seca</t>
+  </si>
+  <si>
+    <t>M-Cn</t>
+  </si>
+  <si>
+    <t>Concentración de azufre atómico en base seca</t>
+  </si>
+  <si>
+    <t>M-Cs</t>
+  </si>
+  <si>
+    <t>Densidad del sustrato</t>
+  </si>
+  <si>
+    <t>M-d</t>
+  </si>
+  <si>
+    <t>Presión de biogás en Reactor 1</t>
+  </si>
+  <si>
+    <t>PT-101</t>
+  </si>
+  <si>
+    <t>Presión de biogás en V-101</t>
+  </si>
+  <si>
+    <t>PT-103</t>
+  </si>
+  <si>
+    <t>Temperatura de biogás en V-101</t>
+  </si>
+  <si>
+    <t>TT-103</t>
+  </si>
+  <si>
+    <t>Velocidad agitación Reactor 1</t>
+  </si>
+  <si>
+    <t>SE-108</t>
+  </si>
+  <si>
+    <t>Caudal bomba P-101</t>
+  </si>
+  <si>
+    <t>SE-101</t>
+  </si>
+  <si>
+    <t>Temperatura 1 Reactor 2</t>
+  </si>
+  <si>
+    <t>TE-102A</t>
+  </si>
+  <si>
+    <t>Temperatura 2 Reactor 2</t>
+  </si>
+  <si>
+    <t>TE-102B</t>
+  </si>
+  <si>
+    <t>Ph reactor 2</t>
+  </si>
+  <si>
+    <t>AT-102</t>
+  </si>
+  <si>
+    <t>Concentración CH4 V-102</t>
+  </si>
+  <si>
+    <t>AT-104A1</t>
+  </si>
+  <si>
+    <t>Concentracion CO2 V-102</t>
+  </si>
+  <si>
+    <t>AT-104A2</t>
+  </si>
+  <si>
+    <t>Concentración H2S V-102</t>
+  </si>
+  <si>
+    <t>AT-104A3</t>
+  </si>
+  <si>
+    <t>Concentración O2 V-102</t>
+  </si>
+  <si>
+    <t>AT-104A4</t>
+  </si>
+  <si>
+    <t>Concentracion H2 V-102</t>
+  </si>
+  <si>
+    <t>AT-104A5</t>
+  </si>
+  <si>
+    <t>Humedad relativa biogás V-102</t>
+  </si>
+  <si>
+    <t>AT-104B</t>
+  </si>
+  <si>
+    <t>Presión biogás en Reactor 2</t>
+  </si>
+  <si>
+    <t>PT-102</t>
+  </si>
+  <si>
+    <t>Presión biogás en V-102</t>
+  </si>
+  <si>
+    <t>PT-104</t>
+  </si>
+  <si>
+    <t>Velocidad agitación Reactor 2</t>
+  </si>
+  <si>
+    <t>SE-109</t>
+  </si>
+  <si>
+    <t>Caudal bomba P-102</t>
+  </si>
+  <si>
+    <t>SE-102</t>
+  </si>
+  <si>
+    <t>Temperatura en V-107</t>
+  </si>
+  <si>
+    <t>TT-105</t>
+  </si>
+  <si>
+    <t>Presión en V-107</t>
+  </si>
+  <si>
+    <t>PT-105</t>
+  </si>
+  <si>
+    <t>Concentración CH4 V-107</t>
+  </si>
+  <si>
+    <t>AT-105A1</t>
+  </si>
+  <si>
+    <t>Concentracion CO2 V-107</t>
+  </si>
+  <si>
+    <t>AT-105A2</t>
+  </si>
+  <si>
+    <t>Concentración H2S V-107</t>
+  </si>
+  <si>
+    <t>AT-105A3</t>
+  </si>
+  <si>
+    <t>Concentración O2 V-107</t>
+  </si>
+  <si>
+    <t>AT-105A4</t>
+  </si>
+  <si>
+    <t>Concentracion H2 V-107</t>
+  </si>
+  <si>
+    <t>AT-105A5</t>
+  </si>
+  <si>
+    <t>Humedad relativa biogás V-107</t>
+  </si>
+  <si>
+    <t>AT-105B</t>
+  </si>
+  <si>
+    <t>Tiempo de retención Hidáulico</t>
+  </si>
+  <si>
+    <t>M-TRH</t>
+  </si>
+  <si>
+    <t>Numero de alimentaciones diarias P-104</t>
+  </si>
+  <si>
+    <t>M-FT-P-104</t>
+  </si>
+  <si>
+    <t>Tiempo de encendido de la bomba P-104</t>
+  </si>
+  <si>
+    <t>M-TTO-P-104</t>
+  </si>
+  <si>
+    <t>Numero de alimentaciones diarias P-101</t>
+  </si>
+  <si>
+    <t>M-FT-P-101</t>
+  </si>
+  <si>
+    <t>Tiempo de encendido de la bomba P-101</t>
+  </si>
+  <si>
+    <t>M-TTO-P-101</t>
+  </si>
+  <si>
+    <t>Caudal de bomba P-101 (Set-Point)</t>
+  </si>
+  <si>
+    <t>M-Q-P-101</t>
+  </si>
+  <si>
+    <t>Caudal de bomba P-101</t>
+  </si>
+  <si>
+    <t>Numero de alimentaciones diarias P-102</t>
+  </si>
+  <si>
+    <t>M-FT-P-102</t>
+  </si>
+  <si>
+    <t>Tiempo de encendido de la bomba P-102</t>
+  </si>
+  <si>
+    <t>M-TTO-P-102</t>
+  </si>
+  <si>
+    <t>Caudal de bomba P-102 (set-Point)</t>
+  </si>
+  <si>
+    <t>Nivel reactor 1 R-101</t>
+  </si>
+  <si>
+    <t>LT-101</t>
+  </si>
+  <si>
+    <t>Nivel reactor 2 R -102</t>
+  </si>
+  <si>
+    <t>LT-102</t>
+  </si>
+  <si>
+    <t>Estado Válvula tanque de biogás 1</t>
+  </si>
+  <si>
+    <t>SV-103</t>
+  </si>
+  <si>
+    <t>Estado Válvula tanque de biogás 2</t>
+  </si>
+  <si>
+    <t>SV-108</t>
+  </si>
+  <si>
+    <t>Estado Válvula tanque de biogás 3</t>
+  </si>
+  <si>
+    <t>SV-109</t>
   </si>
 </sst>
 </file>
@@ -411,7 +763,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,6 +773,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,13 +795,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,18 +1085,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +1110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -765,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -779,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -793,7 +1152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -807,7 +1166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -821,7 +1180,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -835,7 +1194,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -849,7 +1208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -864,7 +1223,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -878,7 +1237,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -893,7 +1252,7 @@
         <v>290.625</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -908,7 +1267,7 @@
         <v>145.3125</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -923,7 +1282,7 @@
         <v>11625</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -938,7 +1297,7 @@
         <v>12090</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -952,7 +1311,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -967,7 +1326,7 @@
         <v>416.83266932270914</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -981,7 +1340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -995,7 +1354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1009,7 +1368,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1024,7 +1383,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1038,7 +1397,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1052,7 +1411,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1067,7 +1426,7 @@
         <v>0.9797958971132712</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
@@ -1083,7 +1442,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
@@ -1097,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
@@ -1111,7 +1470,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
@@ -1125,7 +1484,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>53</v>
       </c>
@@ -1139,7 +1498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
@@ -1153,7 +1512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>53</v>
       </c>
@@ -1167,7 +1526,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>53</v>
       </c>
@@ -1188,6 +1547,892 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C5547A-B804-42A6-8AAE-8D4287B541C3}">
+  <dimension ref="A1:D62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="44.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14">
+        <v>40.479999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16">
+        <v>29.66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" t="s">
+        <v>196</v>
+      </c>
+      <c r="D42">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" t="s">
+        <v>202</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" t="s">
+        <v>211</v>
+      </c>
+      <c r="C51" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" t="s">
+        <v>213</v>
+      </c>
+      <c r="C52" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" t="s">
+        <v>215</v>
+      </c>
+      <c r="C53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" t="s">
+        <v>217</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" t="s">
+        <v>219</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>221</v>
+      </c>
+      <c r="C58" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
+        <v>223</v>
+      </c>
+      <c r="C59" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" t="s">
+        <v>225</v>
+      </c>
+      <c r="C60" t="s">
+        <v>226</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" t="s">
+        <v>227</v>
+      </c>
+      <c r="C61" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" t="s">
+        <v>229</v>
+      </c>
+      <c r="C62" t="s">
+        <v>230</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5844F91E-4DC3-4A3E-8A2D-69D108C045AE}">
   <dimension ref="A1:D38"/>
   <sheetViews>
@@ -1195,14 +2440,14 @@
       <selection activeCell="D30" sqref="D30:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +2461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1230,7 +2475,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -1244,7 +2489,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -1258,7 +2503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -1272,7 +2517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -1286,7 +2531,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -1300,7 +2545,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1314,7 +2559,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -1328,7 +2573,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -1342,7 +2587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -1357,7 +2602,7 @@
         <v>4.4444444444444446</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -1371,7 +2616,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -1385,7 +2630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -1400,7 +2645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -1414,7 +2659,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -1428,7 +2673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -1442,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -1456,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>97</v>
       </c>
@@ -1470,7 +2715,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>97</v>
       </c>
@@ -1484,7 +2729,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>97</v>
       </c>
@@ -1498,7 +2743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -1512,7 +2757,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -1527,7 +2772,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -1541,7 +2786,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -1555,7 +2800,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -1570,7 +2815,7 @@
         <v>0.9797958971132712</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>97</v>
       </c>
@@ -1585,7 +2830,7 @@
         <v>195.95917942265424</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -1599,7 +2844,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -1614,7 +2859,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -1628,7 +2873,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -1642,7 +2887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -1657,7 +2902,7 @@
         <v>0.9797958971132712</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>97</v>
       </c>
@@ -1672,7 +2917,7 @@
         <v>195.95917942265424</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>97</v>
       </c>
@@ -1686,7 +2931,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>97</v>
       </c>
@@ -1700,7 +2945,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>97</v>
       </c>
@@ -1714,7 +2959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>97</v>
       </c>
@@ -1728,7 +2973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>97</v>
       </c>

--- a/backend/v1.0/mockDB/Devices_test.xlsx
+++ b/backend/v1.0/mockDB/Devices_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/mockDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{C1364184-AFFF-4A4F-A4AB-223B18A4B55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A03D361-94ED-41BD-AE64-E880F40F7FB5}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{C1364184-AFFF-4A4F-A4AB-223B18A4B55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85DBB843-D36F-42CE-A1A1-2863829D34BC}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -818,6 +818,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1551,11 +1555,12 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/backend/v1.0/mockDB/Devices_test.xlsx
+++ b/backend/v1.0/mockDB/Devices_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/mockDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{C1364184-AFFF-4A4F-A4AB-223B18A4B55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85DBB843-D36F-42CE-A1A1-2863829D34BC}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{C1364184-AFFF-4A4F-A4AB-223B18A4B55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98AD5C41-89DB-4FDD-9E13-385DCF90CFB7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydro" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="233">
   <si>
     <t>Device</t>
   </si>
@@ -731,6 +731,12 @@
   </si>
   <si>
     <t>SV-109</t>
+  </si>
+  <si>
+    <t>Temperatura de biogás en V-102</t>
+  </si>
+  <si>
+    <t>TT-104</t>
   </si>
 </sst>
 </file>
@@ -795,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -803,6 +809,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1552,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C5547A-B804-42A6-8AAE-8D4287B541C3}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2012,7 +2019,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -2026,7 +2033,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>114</v>
       </c>
@@ -2040,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -2054,186 +2061,187 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>114</v>
       </c>
       <c r="B36" t="s">
+        <v>231</v>
+      </c>
+      <c r="C36" t="s">
+        <v>232</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
         <v>183</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>184</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
         <v>185</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>186</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
         <v>187</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>188</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
         <v>189</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>190</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" t="s">
         <v>191</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>192</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" t="s">
         <v>193</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>194</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" t="s">
         <v>195</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>196</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" t="s">
         <v>197</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>198</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" t="s">
         <v>199</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>200</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" t="s">
         <v>201</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>202</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
         <v>203</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>204</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" t="s">
         <v>205</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>206</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" t="s">
-        <v>207</v>
-      </c>
-      <c r="C48" t="s">
-        <v>208</v>
-      </c>
-      <c r="D48">
-        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2241,13 +2249,13 @@
         <v>114</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="D49">
-        <v>2.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2255,13 +2263,13 @@
         <v>114</v>
       </c>
       <c r="B50" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2269,13 +2277,13 @@
         <v>114</v>
       </c>
       <c r="B51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2283,13 +2291,13 @@
         <v>114</v>
       </c>
       <c r="B52" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D52">
-        <v>2.4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2297,10 +2305,10 @@
         <v>114</v>
       </c>
       <c r="B53" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C53" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="D53">
         <v>2.4</v>
@@ -2311,13 +2319,13 @@
         <v>114</v>
       </c>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C54" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2325,13 +2333,13 @@
         <v>114</v>
       </c>
       <c r="B55" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C55" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2339,13 +2347,13 @@
         <v>114</v>
       </c>
       <c r="B56" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C56" t="s">
         <v>219</v>
       </c>
       <c r="D56">
-        <v>2.4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2353,10 +2361,10 @@
         <v>114</v>
       </c>
       <c r="B57" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="C57" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="D57">
         <v>2.4</v>
@@ -2367,13 +2375,13 @@
         <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="D58">
-        <v>0.37</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2381,13 +2389,13 @@
         <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C59" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D59">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2395,13 +2403,13 @@
         <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C60" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2409,10 +2417,10 @@
         <v>114</v>
       </c>
       <c r="B61" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C61" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2423,17 +2431,32 @@
         <v>114</v>
       </c>
       <c r="B62" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C62" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
     </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" t="s">
+        <v>229</v>
+      </c>
+      <c r="C63" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/backend/v1.0/mockDB/Devices_test.xlsx
+++ b/backend/v1.0/mockDB/Devices_test.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/mockDB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\backend\v1.0\mockDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{C1364184-AFFF-4A4F-A4AB-223B18A4B55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98AD5C41-89DB-4FDD-9E13-385DCF90CFB7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97521015-F954-4A1A-BD85-41222B9B240A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydro" sheetId="1" r:id="rId1"/>
-    <sheet name="BiogasPlant" sheetId="3" r:id="rId2"/>
-    <sheet name="PV_WF" sheetId="2" r:id="rId3"/>
+    <sheet name="Hydro_depurado" sheetId="5" r:id="rId2"/>
+    <sheet name="BiogasPlant" sheetId="3" r:id="rId3"/>
+    <sheet name="PV_WF" sheetId="2" r:id="rId4"/>
+    <sheet name="PV_WF_depurado" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="243">
   <si>
     <t>Device</t>
   </si>
@@ -737,6 +739,36 @@
   </si>
   <si>
     <t>TT-104</t>
+  </si>
+  <si>
+    <t>Potencia de la carga DC del controlador (Controlador)</t>
+  </si>
+  <si>
+    <t>Temperatura de baterías (Controlador)</t>
+  </si>
+  <si>
+    <t>Voltaje de la red externa del inversor híbrido (inversor o analizador)</t>
+  </si>
+  <si>
+    <t>Voltaje de la carga DC del controlador (Controlador)</t>
+  </si>
+  <si>
+    <t>PDC001</t>
+  </si>
+  <si>
+    <t>TB001</t>
+  </si>
+  <si>
+    <t>PB001</t>
+  </si>
+  <si>
+    <t>VGR001</t>
+  </si>
+  <si>
+    <t>VDC001</t>
+  </si>
+  <si>
+    <t>Potencia DC de salida hacia las baterías (Controlador)</t>
   </si>
 </sst>
 </file>
@@ -801,7 +833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -809,7 +841,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,10 +858,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1100,14 +1129,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1135,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1149,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1163,7 +1192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1177,7 +1206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1191,7 +1220,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1205,7 +1234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1219,7 +1248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1234,7 +1263,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1248,7 +1277,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1263,7 +1292,7 @@
         <v>290.625</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1278,7 +1307,7 @@
         <v>145.3125</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1293,7 +1322,7 @@
         <v>11625</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1308,7 +1337,7 @@
         <v>12090</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1322,7 +1351,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1337,7 +1366,7 @@
         <v>416.83266932270914</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1351,7 +1380,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1365,7 +1394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1379,7 +1408,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1394,7 +1423,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1408,7 +1437,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1422,7 +1451,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1437,7 +1466,7 @@
         <v>0.9797958971132712</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
@@ -1453,7 +1482,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
@@ -1467,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
@@ -1481,7 +1510,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
@@ -1495,7 +1524,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>53</v>
       </c>
@@ -1509,7 +1538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
@@ -1523,7 +1552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>53</v>
       </c>
@@ -1537,7 +1566,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>53</v>
       </c>
@@ -1558,20 +1587,484 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF1191F-099A-422D-901F-26AA5CD0988E}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <f>D13/D9</f>
+        <v>290.625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <f>D13/D10</f>
+        <v>145.3125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <f>D6*D7*0.75</f>
+        <v>11625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14">
+        <f>D6*D7*0.78</f>
+        <v>12090</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <f>D13*0.9/D15</f>
+        <v>416.83266932270914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2">
+        <f>D21/D19</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="4">
+        <f>D24/D21</f>
+        <v>0.9797958971132712</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="5">
+        <f>SQRT((D21*D21)-(D22*D22))</f>
+        <v>195.95917942265424</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="3">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="3">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="3">
+        <v>24.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C5547A-B804-42A6-8AAE-8D4287B541C3}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +2078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -1599,7 +2092,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -1613,7 +2106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -1627,7 +2120,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -1641,7 +2134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -1655,7 +2148,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -1669,7 +2162,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -1683,7 +2176,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -1697,7 +2190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -1711,7 +2204,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -1725,7 +2218,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -1739,7 +2232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -1753,7 +2246,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -1767,7 +2260,7 @@
         <v>40.479999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -1781,7 +2274,7 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -1795,7 +2288,7 @@
         <v>29.66</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -1809,7 +2302,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -1823,7 +2316,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -1837,7 +2330,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>114</v>
       </c>
@@ -1851,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -1865,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -1879,7 +2372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -1893,7 +2386,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -1907,7 +2400,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -1921,7 +2414,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -1935,7 +2428,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>114</v>
       </c>
@@ -1949,7 +2442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -1963,7 +2456,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -1977,7 +2470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -1991,7 +2484,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -2005,7 +2498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -2019,7 +2512,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -2033,7 +2526,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>114</v>
       </c>
@@ -2047,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -2061,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -2075,7 +2568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -2089,7 +2582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -2102,9 +2595,8 @@
       <c r="D38">
         <v>2.4</v>
       </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>114</v>
       </c>
@@ -2118,7 +2610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>114</v>
       </c>
@@ -2132,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>114</v>
       </c>
@@ -2146,7 +2638,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>114</v>
       </c>
@@ -2160,7 +2652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>114</v>
       </c>
@@ -2174,7 +2666,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -2188,7 +2680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>114</v>
       </c>
@@ -2202,7 +2694,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -2216,7 +2708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>114</v>
       </c>
@@ -2230,7 +2722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>114</v>
       </c>
@@ -2244,7 +2736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>114</v>
       </c>
@@ -2258,7 +2750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>114</v>
       </c>
@@ -2272,7 +2764,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>114</v>
       </c>
@@ -2286,7 +2778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>114</v>
       </c>
@@ -2300,7 +2792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -2314,7 +2806,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -2328,7 +2820,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -2342,7 +2834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>114</v>
       </c>
@@ -2356,7 +2848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>114</v>
       </c>
@@ -2370,7 +2862,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -2384,7 +2876,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -2398,7 +2890,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>114</v>
       </c>
@@ -2412,7 +2904,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>114</v>
       </c>
@@ -2426,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -2440,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>114</v>
       </c>
@@ -2460,22 +2952,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5844F91E-4DC3-4A3E-8A2D-69D108C045AE}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2489,7 +2981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -2503,126 +2995,126 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D3">
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>69</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D6">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D7">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D8">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D9">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D10">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="4">
@@ -2630,42 +3122,42 @@
         <v>4.4444444444444446</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D12">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D14">
@@ -2673,126 +3165,126 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D15">
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D16">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D19">
         <v>13.6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D20">
         <v>13.9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D21">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D22">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="4">
@@ -2800,42 +3292,42 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D24">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D25">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="4">
@@ -2843,14 +3335,14 @@
         <v>0.9797958971132712</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D27" s="4">
@@ -2858,28 +3350,28 @@
         <v>195.95917942265424</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D28">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="7" t="s">
         <v>90</v>
       </c>
       <c r="D29" s="4">
@@ -2887,42 +3379,42 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D30">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D31">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="7" t="s">
         <v>96</v>
       </c>
       <c r="D32" s="4">
@@ -2930,14 +3422,14 @@
         <v>0.9797958971132712</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="3" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D33" s="4">
@@ -2945,78 +3437,409 @@
         <v>195.95917942265424</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="7" t="s">
         <v>111</v>
       </c>
       <c r="D34">
         <v>13.6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="3" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="7" t="s">
         <v>112</v>
       </c>
       <c r="D35">
         <v>13.9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="7" t="s">
         <v>113</v>
       </c>
       <c r="D36">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="3" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="3" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D38">
         <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D43">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E441738-A19F-450F-8215-E106BB167EEB}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/backend/v1.0/mockDB/Devices_test.xlsx
+++ b/backend/v1.0/mockDB/Devices_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\backend\v1.0\mockDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97521015-F954-4A1A-BD85-41222B9B240A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973D8E35-2CAA-41E8-BFB3-0F4954429E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydro" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="262">
   <si>
     <t>Device</t>
   </si>
@@ -96,15 +96,6 @@
     <t>PT002</t>
   </si>
   <si>
-    <t>Voltaje generada por turbinas (controladores de carga )</t>
-  </si>
-  <si>
-    <t>Corriente generada por turbinas (controladores de carga )</t>
-  </si>
-  <si>
-    <t>Potencia generada por las turbinas (controladores de carga )</t>
-  </si>
-  <si>
     <t>Voltaje de las baterías (controladores de carga )</t>
   </si>
   <si>
@@ -769,6 +760,72 @@
   </si>
   <si>
     <t>Potencia DC de salida hacia las baterías (Controlador)</t>
+  </si>
+  <si>
+    <t>Potencia de las baterías (controladores de carga )</t>
+  </si>
+  <si>
+    <t>Voltaje generada por turbina Pelton (controladores de carga )</t>
+  </si>
+  <si>
+    <t>Voltaje generada por turbina Turgo (controladores de carga )</t>
+  </si>
+  <si>
+    <t>Potencia generada por turbina Pelton (controladores de carga )</t>
+  </si>
+  <si>
+    <t>Potencia generada por turbina Turgo (controladores de carga )</t>
+  </si>
+  <si>
+    <t>Voltaje generada por turbina Pelton (Controlador Pelton)</t>
+  </si>
+  <si>
+    <t>Corriente generada por turbina Turgo (Controlador Turgo)</t>
+  </si>
+  <si>
+    <t>Voltaje generado por turbina Turgo (Controlador Turgo)</t>
+  </si>
+  <si>
+    <t>Corriente generada por turbina Pelton (Controlador Turgo)</t>
+  </si>
+  <si>
+    <t>Potencia generada por turbina Pelton (Controlador Pelton)</t>
+  </si>
+  <si>
+    <t>Potencia generada por turbina Turgo (Controlador Turgo)</t>
+  </si>
+  <si>
+    <t>Voltaje de las baterías (Controlador Pelton)</t>
+  </si>
+  <si>
+    <t>Corriente de carga (Controlador Pelton)</t>
+  </si>
+  <si>
+    <t>Potencia de las baterías (Controlador Pelton)</t>
+  </si>
+  <si>
+    <t>Temperatura Baterías (Controlador Pelton)</t>
+  </si>
+  <si>
+    <t>Voltaje de las baterías (Controlador Turgo)</t>
+  </si>
+  <si>
+    <t>Corriente de carga (Controlador Turgo)</t>
+  </si>
+  <si>
+    <t>Potencia de las baterías  (Controlador Turgo)</t>
+  </si>
+  <si>
+    <t>Temperatura Baterías  (Controlador Turgo)</t>
+  </si>
+  <si>
+    <t>VB002</t>
+  </si>
+  <si>
+    <t>IC002</t>
+  </si>
+  <si>
+    <t>PB002</t>
   </si>
 </sst>
 </file>
@@ -778,7 +835,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,19 +857,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -833,16 +892,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1123,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,432 +1209,502 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" s="5">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D9">
-        <v>40</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11">
+      <c r="A11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="5">
         <f>D13/D9</f>
         <v>290.625</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12">
+      <c r="A12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="5">
         <f>D13/D10</f>
         <v>145.3125</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13">
+      <c r="A13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="5">
         <f>D6*D7*0.75</f>
         <v>11625</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14">
+      <c r="A14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="5">
         <f>D6*D7*0.78</f>
         <v>12090</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="5">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <f>D13*0.9/D15</f>
         <v>416.83266932270914</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" s="5">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D23" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D17">
+      <c r="C24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="7">
+        <f>D26/D24</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="6">
+        <f>D29/D26</f>
+        <v>0.9797958971132712</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="6">
+        <f>SQRT((D26*D26)-(D27*D27))</f>
+        <v>195.95917942265424</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="5">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="5">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="5">
         <v>28</v>
       </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="2">
-        <f>D21/D19</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="4">
-        <f>D24/D21</f>
-        <v>0.9797958971132712</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="5">
-        <f>SQRT((D21*D21)-(D22*D22))</f>
-        <v>195.95917942265424</v>
-      </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="3" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="3">
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="3">
-        <v>27.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="D35" s="5">
         <v>24.75</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1588,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF1191F-099A-422D-901F-26AA5CD0988E}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,448 +1729,182 @@
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
       <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9">
-        <v>40</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
         <v>55</v>
-      </c>
-      <c r="D11">
-        <f>D13/D9</f>
-        <v>290.625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12">
-        <f>D13/D10</f>
-        <v>145.3125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13">
-        <f>D6*D7*0.75</f>
-        <v>11625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14">
-        <f>D6*D7*0.78</f>
-        <v>12090</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16">
-        <f>D13*0.9/D15</f>
-        <v>416.83266932270914</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="2">
-        <f>D21/D19</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="4">
-        <f>D24/D21</f>
-        <v>0.9797958971132712</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="5">
-        <f>SQRT((D21*D21)-(D22*D22))</f>
-        <v>195.95917942265424</v>
-      </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="3">
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="3">
-        <v>27.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="3">
-        <v>24.75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2080,13 +1942,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D2">
         <v>2.4</v>
@@ -2094,13 +1956,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
         <v>114</v>
       </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D3">
         <v>35</v>
@@ -2108,13 +1970,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -2122,13 +1984,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -2136,13 +1998,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D6">
         <v>45</v>
@@ -2150,13 +2012,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -2164,13 +2026,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D8">
         <v>500</v>
@@ -2178,13 +2040,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -2192,13 +2054,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D10">
         <v>1000</v>
@@ -2206,13 +2068,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D11">
         <v>40</v>
@@ -2220,13 +2082,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -2234,13 +2096,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D13">
         <v>0.5</v>
@@ -2248,13 +2110,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D14">
         <v>40.479999999999997</v>
@@ -2262,13 +2124,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D15">
         <v>5.29</v>
@@ -2276,13 +2138,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D16">
         <v>29.66</v>
@@ -2290,13 +2152,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D17">
         <v>1.37</v>
@@ -2304,13 +2166,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D18">
         <v>0.21099999999999999</v>
@@ -2318,13 +2180,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D19">
         <v>1000</v>
@@ -2332,13 +2194,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>151</v>
+        <v>111</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2346,13 +2208,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>153</v>
+        <v>111</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2360,13 +2222,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D22">
         <v>30</v>
@@ -2374,13 +2236,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D23">
         <v>100</v>
@@ -2388,13 +2250,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D24">
         <v>2.4</v>
@@ -2402,13 +2264,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D25">
         <v>35</v>
@@ -2416,13 +2278,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D26">
         <v>35</v>
@@ -2430,13 +2292,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -2444,13 +2306,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D28">
         <v>45</v>
@@ -2458,13 +2320,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D29">
         <v>30</v>
@@ -2472,13 +2334,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D30">
         <v>500</v>
@@ -2486,13 +2348,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -2500,13 +2362,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D32">
         <v>1000</v>
@@ -2514,13 +2376,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C33" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D33">
         <v>40</v>
@@ -2528,13 +2390,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>179</v>
+        <v>111</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="C34" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2542,13 +2404,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>181</v>
+        <v>111</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2556,13 +2418,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C36" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D36">
         <v>30</v>
@@ -2570,13 +2432,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D37">
         <v>100</v>
@@ -2584,13 +2446,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D38">
         <v>2.4</v>
@@ -2598,13 +2460,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C39" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D39">
         <v>30</v>
@@ -2612,13 +2474,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C40" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2626,13 +2488,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D41">
         <v>45</v>
@@ -2640,13 +2502,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C42" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D42">
         <v>30</v>
@@ -2654,13 +2516,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C43" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D43">
         <v>500</v>
@@ -2668,13 +2530,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C44" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D44">
         <v>5</v>
@@ -2682,13 +2544,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C45" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D45">
         <v>1000</v>
@@ -2696,13 +2558,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C46" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D46">
         <v>10</v>
@@ -2710,13 +2572,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C47" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D47">
         <v>30</v>
@@ -2724,13 +2586,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B48" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C48" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D48">
         <v>5</v>
@@ -2738,13 +2600,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C49" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D49">
         <v>10</v>
@@ -2752,13 +2614,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D50">
         <v>2.4</v>
@@ -2766,13 +2628,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B51" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C51" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D51">
         <v>5</v>
@@ -2780,13 +2642,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C52" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D52">
         <v>20</v>
@@ -2794,13 +2656,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C53" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D53">
         <v>2.4</v>
@@ -2808,13 +2670,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D54">
         <v>2.4</v>
@@ -2822,13 +2684,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D55">
         <v>5</v>
@@ -2836,13 +2698,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C56" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D56">
         <v>20</v>
@@ -2850,13 +2712,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B57" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C57" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D57">
         <v>2.4</v>
@@ -2864,13 +2726,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D58">
         <v>2.4</v>
@@ -2878,13 +2740,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C59" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D59">
         <v>0.37</v>
@@ -2892,13 +2754,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C60" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D60">
         <v>0.5</v>
@@ -2906,13 +2768,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B61" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C61" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2920,13 +2782,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C62" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2934,13 +2796,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B63" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C63" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2956,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5844F91E-4DC3-4A3E-8A2D-69D108C045AE}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -2983,68 +2845,68 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>65</v>
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
       </c>
       <c r="D3">
         <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>67</v>
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>69</v>
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
@@ -3052,13 +2914,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7">
@@ -3066,99 +2928,99 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>26</v>
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
       <c r="D8">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>98</v>
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
       </c>
       <c r="D9">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>56</v>
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
       </c>
       <c r="D10">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2">
         <f>D12/D10</f>
         <v>4.4444444444444446</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>54</v>
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
       </c>
       <c r="D12">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>75</v>
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>77</v>
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
       </c>
       <c r="D14">
         <f>D15/D13</f>
@@ -3166,412 +3028,412 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>79</v>
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
       </c>
       <c r="D15">
         <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>22</v>
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
       </c>
       <c r="D16">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>28</v>
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>83</v>
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>48</v>
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
       </c>
       <c r="D19">
         <v>13.6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>49</v>
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
       <c r="D20">
         <v>13.9</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>50</v>
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
       </c>
       <c r="D21">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
       </c>
       <c r="D22">
         <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="2">
         <f>D24/D22</f>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>34</v>
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
       </c>
       <c r="D24">
         <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>36</v>
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
       </c>
       <c r="D25">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="2">
         <f>D27/D24</f>
         <v>0.9797958971132712</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="2">
         <f>SQRT((D24*D24)-(D25*D25))</f>
         <v>195.95917942265424</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>88</v>
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
       </c>
       <c r="D28">
         <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="4">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="2">
         <f>D30/D28</f>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>92</v>
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
       </c>
       <c r="D30">
         <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>94</v>
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
       </c>
       <c r="D31">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="2">
         <f>D33/D30</f>
         <v>0.9797958971132712</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="4">
+      <c r="D33" s="2">
         <f>SQRT((D30*D30)-(D31*D31))</f>
         <v>195.95917942265424</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>111</v>
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
       </c>
       <c r="D34">
         <v>13.6</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>112</v>
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>109</v>
       </c>
       <c r="D35">
         <v>13.9</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>113</v>
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
       </c>
       <c r="D36">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>58</v>
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>99</v>
+      <c r="A38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="7" t="s">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
         <v>233</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>241</v>
+      <c r="C40" t="s">
+        <v>238</v>
       </c>
       <c r="D40">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>238</v>
+      <c r="A41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C41" t="s">
+        <v>235</v>
       </c>
       <c r="D41">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" t="s">
         <v>239</v>
+      </c>
+      <c r="C42" t="s">
+        <v>236</v>
       </c>
       <c r="D42">
         <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>240</v>
+      <c r="A43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" t="s">
+        <v>237</v>
       </c>
       <c r="D43">
         <v>120</v>
@@ -3588,7 +3450,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C22"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3598,245 +3460,245 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>58</v>
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
         <v>233</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/backend/v1.0/mockDB/Devices_test.xlsx
+++ b/backend/v1.0/mockDB/Devices_test.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\backend\v1.0\mockDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973D8E35-2CAA-41E8-BFB3-0F4954429E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9AB559-89AC-4F85-8830-7A858ED7DEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydro" sheetId="1" r:id="rId1"/>
-    <sheet name="Hydro_depurado" sheetId="5" r:id="rId2"/>
-    <sheet name="BiogasPlant" sheetId="3" r:id="rId3"/>
-    <sheet name="PV_WF" sheetId="2" r:id="rId4"/>
-    <sheet name="PV_WF_depurado" sheetId="4" r:id="rId5"/>
+    <sheet name="BiogasPlant" sheetId="3" r:id="rId2"/>
+    <sheet name="PV_WF" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="254">
   <si>
     <t>Device</t>
   </si>
@@ -96,21 +94,12 @@
     <t>PT002</t>
   </si>
   <si>
-    <t>Voltaje de las baterías (controladores de carga )</t>
-  </si>
-  <si>
     <t>VB001</t>
   </si>
   <si>
-    <t>Corriente de carga (controladores de carga )</t>
-  </si>
-  <si>
     <t>IC001</t>
   </si>
   <si>
-    <t>Temperatura Baterías (controladores de carga )</t>
-  </si>
-  <si>
     <t>TE003</t>
   </si>
   <si>
@@ -760,21 +749,6 @@
   </si>
   <si>
     <t>Potencia DC de salida hacia las baterías (Controlador)</t>
-  </si>
-  <si>
-    <t>Potencia de las baterías (controladores de carga )</t>
-  </si>
-  <si>
-    <t>Voltaje generada por turbina Pelton (controladores de carga )</t>
-  </si>
-  <si>
-    <t>Voltaje generada por turbina Turgo (controladores de carga )</t>
-  </si>
-  <si>
-    <t>Potencia generada por turbina Pelton (controladores de carga )</t>
-  </si>
-  <si>
-    <t>Potencia generada por turbina Turgo (controladores de carga )</t>
   </si>
   <si>
     <t>Voltaje generada por turbina Pelton (Controlador Pelton)</t>
@@ -835,7 +809,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -853,14 +827,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -892,15 +858,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,7 +1146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1209,502 +1172,502 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="5">
-        <v>40</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="D10">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
         <f>D13/D9</f>
         <v>290.625</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12">
         <f>D13/D10</f>
         <v>145.3125</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13">
         <f>D6*D7*0.75</f>
         <v>11625</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14">
         <f>D6*D7*0.78</f>
         <v>12090</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="5">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="D16">
         <f>D13*0.9/D15</f>
         <v>416.83266932270914</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D19">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" t="s">
         <v>253</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="D21">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C18" s="5" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D19" s="5">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D20" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D21" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="C24" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D24">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="C25" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="D25" s="4">
         <f>D26/D24</f>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="C28" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="D28" s="2">
         <f>D29/D26</f>
         <v>0.9797958971132712</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="2">
         <f>SQRT((D26*D26)-(D27*D27))</f>
         <v>195.95917942265424</v>
       </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C33" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="D33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="5">
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="5">
-        <v>27.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="D35">
         <v>24.75</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36">
         <v>1</v>
       </c>
     </row>
@@ -1715,204 +1678,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF1191F-099A-422D-901F-26AA5CD0988E}">
-  <dimension ref="A1:G16"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C5547A-B804-42A6-8AAE-8D4287B541C3}">
   <dimension ref="A1:D63"/>
   <sheetViews>
@@ -1942,13 +1707,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D2">
         <v>2.4</v>
@@ -1956,13 +1721,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
         <v>111</v>
       </c>
-      <c r="B3" t="s">
-        <v>114</v>
-      </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D3">
         <v>35</v>
@@ -1970,13 +1735,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -1984,13 +1749,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -1998,13 +1763,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D6">
         <v>45</v>
@@ -2012,13 +1777,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -2026,13 +1791,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D8">
         <v>500</v>
@@ -2040,13 +1805,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -2054,13 +1819,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D10">
         <v>1000</v>
@@ -2068,13 +1833,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D11">
         <v>40</v>
@@ -2082,13 +1847,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -2096,13 +1861,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D13">
         <v>0.5</v>
@@ -2110,13 +1875,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D14">
         <v>40.479999999999997</v>
@@ -2124,13 +1889,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D15">
         <v>5.29</v>
@@ -2138,13 +1903,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D16">
         <v>29.66</v>
@@ -2152,13 +1917,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D17">
         <v>1.37</v>
@@ -2166,13 +1931,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D18">
         <v>0.21099999999999999</v>
@@ -2180,13 +1945,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D19">
         <v>1000</v>
@@ -2194,13 +1959,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2208,13 +1973,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2222,13 +1987,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D22">
         <v>30</v>
@@ -2236,13 +2001,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D23">
         <v>100</v>
@@ -2250,13 +2015,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D24">
         <v>2.4</v>
@@ -2264,13 +2029,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D25">
         <v>35</v>
@@ -2278,13 +2043,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D26">
         <v>35</v>
@@ -2292,13 +2057,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -2306,13 +2071,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D28">
         <v>45</v>
@@ -2320,13 +2085,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D29">
         <v>30</v>
@@ -2334,13 +2099,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C30" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D30">
         <v>500</v>
@@ -2348,13 +2113,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -2362,13 +2127,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C32" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D32">
         <v>1000</v>
@@ -2376,13 +2141,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D33">
         <v>40</v>
@@ -2390,13 +2155,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C34" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2404,13 +2169,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C35" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2418,13 +2183,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C36" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D36">
         <v>30</v>
@@ -2432,13 +2197,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C37" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D37">
         <v>100</v>
@@ -2446,13 +2211,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C38" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D38">
         <v>2.4</v>
@@ -2460,13 +2225,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C39" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D39">
         <v>30</v>
@@ -2474,13 +2239,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C40" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2488,13 +2253,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C41" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D41">
         <v>45</v>
@@ -2502,13 +2267,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C42" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D42">
         <v>30</v>
@@ -2516,13 +2281,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B43" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C43" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D43">
         <v>500</v>
@@ -2530,13 +2295,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B44" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C44" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D44">
         <v>5</v>
@@ -2544,13 +2309,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C45" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D45">
         <v>1000</v>
@@ -2558,13 +2323,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D46">
         <v>10</v>
@@ -2572,13 +2337,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B47" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D47">
         <v>30</v>
@@ -2586,13 +2351,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B48" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D48">
         <v>5</v>
@@ -2600,13 +2365,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B49" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D49">
         <v>10</v>
@@ -2614,13 +2379,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D50">
         <v>2.4</v>
@@ -2628,13 +2393,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B51" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D51">
         <v>5</v>
@@ -2642,13 +2407,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C52" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D52">
         <v>20</v>
@@ -2656,13 +2421,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C53" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D53">
         <v>2.4</v>
@@ -2670,13 +2435,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C54" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D54">
         <v>2.4</v>
@@ -2684,13 +2449,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C55" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D55">
         <v>5</v>
@@ -2698,13 +2463,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D56">
         <v>20</v>
@@ -2712,13 +2477,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C57" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D57">
         <v>2.4</v>
@@ -2726,13 +2491,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D58">
         <v>2.4</v>
@@ -2740,13 +2505,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C59" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D59">
         <v>0.37</v>
@@ -2754,13 +2519,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C60" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D60">
         <v>0.5</v>
@@ -2768,13 +2533,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B61" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2782,13 +2547,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B62" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C62" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2796,13 +2561,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C63" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2814,12 +2579,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5844F91E-4DC3-4A3E-8A2D-69D108C045AE}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2845,13 +2610,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>800</v>
@@ -2859,13 +2624,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>800</v>
@@ -2873,13 +2638,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -2887,13 +2652,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -2901,10 +2666,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -2915,10 +2680,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -2929,13 +2694,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>46</v>
@@ -2943,13 +2708,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>47</v>
@@ -2957,13 +2722,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>18</v>
@@ -2971,13 +2736,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2">
         <f>D12/D10</f>
@@ -2986,13 +2751,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>80</v>
@@ -3000,13 +2765,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -3014,13 +2779,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D14">
         <f>D15/D13</f>
@@ -3029,13 +2794,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D15">
         <v>180</v>
@@ -3043,13 +2808,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>13</v>
@@ -3057,13 +2822,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3071,13 +2836,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3085,13 +2850,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D19">
         <v>13.6</v>
@@ -3099,13 +2864,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>13.9</v>
@@ -3113,13 +2878,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <v>12</v>
@@ -3127,13 +2892,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D22">
         <v>120</v>
@@ -3141,13 +2906,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D23" s="2">
         <f>D24/D22</f>
@@ -3156,13 +2921,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24">
         <v>200</v>
@@ -3170,13 +2935,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <v>40</v>
@@ -3184,13 +2949,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <f>D27/D24</f>
@@ -3199,13 +2964,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2">
         <f>SQRT((D24*D24)-(D25*D25))</f>
@@ -3214,13 +2979,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D28">
         <v>120</v>
@@ -3228,13 +2993,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D29" s="2">
         <f>D30/D28</f>
@@ -3243,13 +3008,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D30">
         <v>200</v>
@@ -3257,13 +3022,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D31">
         <v>40</v>
@@ -3271,13 +3036,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D32" s="2">
         <f>D33/D30</f>
@@ -3286,13 +3051,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
         <v>94</v>
-      </c>
-      <c r="B33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" t="s">
-        <v>97</v>
       </c>
       <c r="D33" s="2">
         <f>SQRT((D30*D30)-(D31*D31))</f>
@@ -3301,13 +3066,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D34">
         <v>13.6</v>
@@ -3315,13 +3080,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D35">
         <v>13.9</v>
@@ -3329,13 +3094,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D36">
         <v>12</v>
@@ -3343,13 +3108,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3357,13 +3122,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3371,13 +3136,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C39" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D39">
         <v>50</v>
@@ -3385,13 +3150,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C40" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D40">
         <v>12</v>
@@ -3399,13 +3164,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D41">
         <v>30</v>
@@ -3413,13 +3178,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D42">
         <v>150</v>
@@ -3427,13 +3192,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D43">
         <v>120</v>
@@ -3443,265 +3208,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E441738-A19F-450F-8215-E106BB167EEB}">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" t="s">
-        <v>230</v>
-      </c>
-      <c r="C18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" t="s">
-        <v>233</v>
-      </c>
-      <c r="C19" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" t="s">
-        <v>231</v>
-      </c>
-      <c r="C20" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" t="s">
-        <v>232</v>
-      </c>
-      <c r="C22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/backend/v1.0/mockDB/Devices_test.xlsx
+++ b/backend/v1.0/mockDB/Devices_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\backend\v1.0\mockDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\project-cali\backend\v1.0\mockDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9AB559-89AC-4F85-8830-7A858ED7DEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D3E918-1B14-4515-B4BE-5E9D26F7D6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydro" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="264">
   <si>
     <t>Device</t>
   </si>
@@ -247,9 +247,6 @@
     <t>Voltaje aerogenerador (fan) (Controlador)</t>
   </si>
   <si>
-    <t>VG005</t>
-  </si>
-  <si>
     <t>Corriente Aerogenerador (fan) (Controlador)</t>
   </si>
   <si>
@@ -259,9 +256,6 @@
     <t>Potencia aerogenerador (fan)(Controlador)</t>
   </si>
   <si>
-    <t>PG005</t>
-  </si>
-  <si>
     <t>Voltaje de las baterías (Controlador)</t>
   </si>
   <si>
@@ -800,6 +794,42 @@
   </si>
   <si>
     <t>PB002</t>
+  </si>
+  <si>
+    <t>Voltaje de las baterías inversor híbrido</t>
+  </si>
+  <si>
+    <t>Temperatura de baterías inversor híbrido</t>
+  </si>
+  <si>
+    <t>TB002</t>
+  </si>
+  <si>
+    <t>Potencia paneles inversor híbrido</t>
+  </si>
+  <si>
+    <t>PG003</t>
+  </si>
+  <si>
+    <t>Potencia aerogenerador inversor híbrido</t>
+  </si>
+  <si>
+    <t>PG004</t>
+  </si>
+  <si>
+    <t>Potencia DC de salida hacia las baterías inversor híbrido</t>
+  </si>
+  <si>
+    <t>Voltaje Paneles solares inversor híbrido</t>
+  </si>
+  <si>
+    <t>VG003</t>
+  </si>
+  <si>
+    <t>Voltaje aerogenerador inversor híbrido</t>
+  </si>
+  <si>
+    <t>VG004</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1274,7 +1304,7 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
@@ -1289,7 +1319,7 @@
         <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C10" t="s">
         <v>53</v>
@@ -1303,7 +1333,7 @@
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C11" t="s">
         <v>49</v>
@@ -1318,7 +1348,7 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
@@ -1333,7 +1363,7 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C13" t="s">
         <v>48</v>
@@ -1348,7 +1378,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
@@ -1363,7 +1393,7 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -1377,7 +1407,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1392,10 +1422,10 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D17">
         <v>100</v>
@@ -1406,7 +1436,7 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -1420,10 +1450,10 @@
         <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D19">
         <v>25.1</v>
@@ -1434,10 +1464,10 @@
         <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -1448,10 +1478,10 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D21">
         <v>100</v>
@@ -1462,10 +1492,10 @@
         <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D22">
         <v>30</v>
@@ -1707,13 +1737,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
         <v>108</v>
-      </c>
-      <c r="B2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" t="s">
-        <v>110</v>
       </c>
       <c r="D2">
         <v>2.4</v>
@@ -1721,13 +1751,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D3">
         <v>35</v>
@@ -1735,13 +1765,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -1749,13 +1779,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -1763,13 +1793,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D6">
         <v>45</v>
@@ -1777,13 +1807,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -1791,13 +1821,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D8">
         <v>500</v>
@@ -1805,13 +1835,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -1819,13 +1849,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D10">
         <v>1000</v>
@@ -1833,13 +1863,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D11">
         <v>40</v>
@@ -1847,13 +1877,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -1861,13 +1891,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D13">
         <v>0.5</v>
@@ -1875,13 +1905,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D14">
         <v>40.479999999999997</v>
@@ -1889,13 +1919,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D15">
         <v>5.29</v>
@@ -1903,13 +1933,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D16">
         <v>29.66</v>
@@ -1917,13 +1947,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D17">
         <v>1.37</v>
@@ -1931,13 +1961,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D18">
         <v>0.21099999999999999</v>
@@ -1945,13 +1975,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D19">
         <v>1000</v>
@@ -1959,13 +1989,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1973,13 +2003,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1987,13 +2017,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D22">
         <v>30</v>
@@ -2001,13 +2031,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D23">
         <v>100</v>
@@ -2015,13 +2045,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D24">
         <v>2.4</v>
@@ -2029,13 +2059,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D25">
         <v>35</v>
@@ -2043,13 +2073,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D26">
         <v>35</v>
@@ -2057,13 +2087,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -2071,13 +2101,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D28">
         <v>45</v>
@@ -2085,13 +2115,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D29">
         <v>30</v>
@@ -2099,13 +2129,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D30">
         <v>500</v>
@@ -2113,13 +2143,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -2127,13 +2157,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D32">
         <v>1000</v>
@@ -2141,13 +2171,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D33">
         <v>40</v>
@@ -2155,13 +2185,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2169,13 +2199,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2183,13 +2213,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D36">
         <v>30</v>
@@ -2197,13 +2227,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D37">
         <v>100</v>
@@ -2211,13 +2241,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D38">
         <v>2.4</v>
@@ -2225,13 +2255,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D39">
         <v>30</v>
@@ -2239,13 +2269,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2253,13 +2283,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B41" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D41">
         <v>45</v>
@@ -2267,13 +2297,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C42" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D42">
         <v>30</v>
@@ -2281,13 +2311,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D43">
         <v>500</v>
@@ -2295,13 +2325,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C44" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D44">
         <v>5</v>
@@ -2309,13 +2339,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C45" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D45">
         <v>1000</v>
@@ -2323,13 +2353,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D46">
         <v>10</v>
@@ -2337,13 +2367,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C47" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D47">
         <v>30</v>
@@ -2351,13 +2381,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D48">
         <v>5</v>
@@ -2365,13 +2395,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B49" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D49">
         <v>10</v>
@@ -2379,13 +2409,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
         <v>108</v>
-      </c>
-      <c r="B50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" t="s">
-        <v>110</v>
       </c>
       <c r="D50">
         <v>2.4</v>
@@ -2393,13 +2423,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C51" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D51">
         <v>5</v>
@@ -2407,13 +2437,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D52">
         <v>20</v>
@@ -2421,13 +2451,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C53" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D53">
         <v>2.4</v>
@@ -2435,13 +2465,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D54">
         <v>2.4</v>
@@ -2449,13 +2479,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D55">
         <v>5</v>
@@ -2463,13 +2493,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D56">
         <v>20</v>
@@ -2477,13 +2507,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D57">
         <v>2.4</v>
@@ -2491,13 +2521,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C58" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D58">
         <v>2.4</v>
@@ -2505,13 +2535,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C59" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D59">
         <v>0.37</v>
@@ -2519,13 +2549,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C60" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D60">
         <v>0.5</v>
@@ -2533,13 +2563,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B61" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C61" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2547,13 +2577,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C62" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2561,13 +2591,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B63" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2581,10 +2611,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5844F91E-4DC3-4A3E-8A2D-69D108C045AE}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2610,7 +2640,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -2624,7 +2654,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -2638,7 +2668,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -2652,7 +2682,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -2666,7 +2696,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -2680,7 +2710,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -2694,7 +2724,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -2708,13 +2738,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9">
         <v>47</v>
@@ -2722,7 +2752,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -2736,7 +2766,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
@@ -2751,7 +2781,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -2765,13 +2795,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -2779,13 +2809,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
         <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
       </c>
       <c r="D14">
         <f>D15/D13</f>
@@ -2794,13 +2824,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>180</v>
@@ -2808,10 +2838,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -2822,10 +2852,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -2836,13 +2866,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2850,10 +2880,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
@@ -2864,10 +2894,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
@@ -2878,10 +2908,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
@@ -2892,7 +2922,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -2906,7 +2936,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -2921,10 +2951,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2935,10 +2965,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
@@ -2949,10 +2979,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
@@ -2964,10 +2994,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
@@ -2979,13 +3009,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D28">
         <v>120</v>
@@ -2993,13 +3023,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29" s="2">
         <f>D30/D28</f>
@@ -3008,13 +3038,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D30">
         <v>200</v>
@@ -3022,13 +3052,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D31">
         <v>40</v>
@@ -3036,13 +3066,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D32" s="2">
         <f>D33/D30</f>
@@ -3051,13 +3081,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D33" s="2">
         <f>SQRT((D30*D30)-(D31*D31))</f>
@@ -3066,69 +3096,69 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>252</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="D34">
-        <v>13.6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D35">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3136,72 +3166,170 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
         <v>91</v>
       </c>
-      <c r="B39" t="s">
-        <v>227</v>
-      </c>
-      <c r="C39" t="s">
-        <v>231</v>
-      </c>
       <c r="D39">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C40" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D40">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
         <v>228</v>
       </c>
       <c r="C41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C42" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D42">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="C43" t="s">
+        <v>254</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
         <v>234</v>
       </c>
-      <c r="D43">
+      <c r="C44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>227</v>
+      </c>
+      <c r="C45" t="s">
+        <v>232</v>
+      </c>
+      <c r="D45">
         <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>255</v>
+      </c>
+      <c r="C46" t="s">
+        <v>256</v>
+      </c>
+      <c r="D46">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
+        <v>257</v>
+      </c>
+      <c r="C47" t="s">
+        <v>258</v>
+      </c>
+      <c r="D47">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
+        <v>259</v>
+      </c>
+      <c r="C48" t="s">
+        <v>251</v>
+      </c>
+      <c r="D48">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" t="s">
+        <v>260</v>
+      </c>
+      <c r="C49" t="s">
+        <v>261</v>
+      </c>
+      <c r="D49">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" t="s">
+        <v>263</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/backend/v1.0/mockDB/Devices_test.xlsx
+++ b/backend/v1.0/mockDB/Devices_test.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\project-cali\backend\v1.0\mockDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\backend\v1.0\mockDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D3E918-1B14-4515-B4BE-5E9D26F7D6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F399E2-BF79-4E2C-B9CB-89859589ABA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydro" sheetId="1" r:id="rId1"/>
     <sheet name="BiogasPlant" sheetId="3" r:id="rId2"/>
     <sheet name="PV_WF" sheetId="2" r:id="rId3"/>
+    <sheet name="TP_1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="264">
   <si>
     <t>Device</t>
   </si>
@@ -1177,7 +1178,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,7 +1341,7 @@
       </c>
       <c r="D11">
         <f>D13/D9</f>
-        <v>290.625</v>
+        <v>15.574999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1355,7 +1356,7 @@
       </c>
       <c r="D12">
         <f>D13/D10</f>
-        <v>145.3125</v>
+        <v>7.7874999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1369,8 +1370,7 @@
         <v>48</v>
       </c>
       <c r="D13">
-        <f>D6*D7*0.75</f>
-        <v>11625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1384,8 +1384,7 @@
         <v>55</v>
       </c>
       <c r="D14">
-        <f>D6*D7*0.78</f>
-        <v>12090</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1414,7 +1413,7 @@
       </c>
       <c r="D16">
         <f>D13*0.9/D15</f>
-        <v>416.83266932270914</v>
+        <v>22.338645418326692</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1711,7 +1710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C5547A-B804-42A6-8AAE-8D4287B541C3}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -2613,7 +2612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5844F91E-4DC3-4A3E-8A2D-69D108C045AE}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
@@ -3336,4 +3335,36 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80497A87-5197-4B2F-86F3-3DBD29A76890}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/backend/v1.0/mockDB/Devices_test.xlsx
+++ b/backend/v1.0/mockDB/Devices_test.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\backend\v1.0\mockDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\backend\v1.0\mockDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F399E2-BF79-4E2C-B9CB-89859589ABA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D43483-596E-45B8-A25D-7ED4A07D609B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydro" sheetId="1" r:id="rId1"/>
     <sheet name="BiogasPlant" sheetId="3" r:id="rId2"/>
     <sheet name="PV_WF" sheetId="2" r:id="rId3"/>
-    <sheet name="TP_1" sheetId="4" r:id="rId4"/>
+    <sheet name="TP_Totalizador" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="406">
   <si>
     <t>Device</t>
   </si>
@@ -831,6 +831,432 @@
   </si>
   <si>
     <t>VG004</t>
+  </si>
+  <si>
+    <t>TP_Totalizador</t>
+  </si>
+  <si>
+    <t>L1 Voltaje</t>
+  </si>
+  <si>
+    <t>L2 Voltaje</t>
+  </si>
+  <si>
+    <t>L3 Voltaje</t>
+  </si>
+  <si>
+    <t>L1 Corriente</t>
+  </si>
+  <si>
+    <t>L2 Corriente</t>
+  </si>
+  <si>
+    <t>L3 Corriente</t>
+  </si>
+  <si>
+    <t>L1-L2 Voltaje</t>
+  </si>
+  <si>
+    <t>L2-L3 Voltaje</t>
+  </si>
+  <si>
+    <t>L3-L1 Voltaje</t>
+  </si>
+  <si>
+    <t>L1 Potencia Activa</t>
+  </si>
+  <si>
+    <t>L2 Potencia Activa</t>
+  </si>
+  <si>
+    <t>L3 Potencia Activa</t>
+  </si>
+  <si>
+    <t>L1 Potencia Reactiva</t>
+  </si>
+  <si>
+    <t>L2 Potencia Reactiva</t>
+  </si>
+  <si>
+    <t>L3 Potencia Reactiva</t>
+  </si>
+  <si>
+    <t>L1 Potencia Aparente</t>
+  </si>
+  <si>
+    <t>L2 Potencia Aparente</t>
+  </si>
+  <si>
+    <t>L3 Potencia Aparente</t>
+  </si>
+  <si>
+    <t>L1 Factor de Potencia</t>
+  </si>
+  <si>
+    <t>L2 Factor de Potencia</t>
+  </si>
+  <si>
+    <t>L3 Factor de Potencia</t>
+  </si>
+  <si>
+    <t>Frecuencia</t>
+  </si>
+  <si>
+    <t>L1 THD Voltaje</t>
+  </si>
+  <si>
+    <t>L2 THD Voltaje</t>
+  </si>
+  <si>
+    <t>L3 THD Voltaje</t>
+  </si>
+  <si>
+    <t>L1 THD Corriente</t>
+  </si>
+  <si>
+    <t>L2 THD Corriente</t>
+  </si>
+  <si>
+    <t>L3 THD Corriente</t>
+  </si>
+  <si>
+    <t>L1 Fundamental Voltaje</t>
+  </si>
+  <si>
+    <t>L1 Armónico Voltaje 2</t>
+  </si>
+  <si>
+    <t>L1 Armónico Voltaje 3</t>
+  </si>
+  <si>
+    <t>L1 Armónico Voltaje 4</t>
+  </si>
+  <si>
+    <t>L1 Armónico Voltaje 5</t>
+  </si>
+  <si>
+    <t>L1 Armónico Voltaje 6</t>
+  </si>
+  <si>
+    <t>L1 Armónico Voltaje 7</t>
+  </si>
+  <si>
+    <t>L1 Armónico Voltaje 8</t>
+  </si>
+  <si>
+    <t>L1 Armónico Voltaje 9</t>
+  </si>
+  <si>
+    <t>L1 Armónico Voltaje 10</t>
+  </si>
+  <si>
+    <t>L1 Armónico Voltaje 11</t>
+  </si>
+  <si>
+    <t>L1 Armónico Voltaje 12</t>
+  </si>
+  <si>
+    <t>L1 Armónico Voltaje 13</t>
+  </si>
+  <si>
+    <t>L1 Armónico Voltaje 14</t>
+  </si>
+  <si>
+    <t>L1 Armónico Voltaje 15</t>
+  </si>
+  <si>
+    <t>L2 Fundamental Voltaje</t>
+  </si>
+  <si>
+    <t>L2 Armónico Voltaje 2</t>
+  </si>
+  <si>
+    <t>L2 Armónico Voltaje 3</t>
+  </si>
+  <si>
+    <t>L2 Armónico Voltaje 4</t>
+  </si>
+  <si>
+    <t>L2 Armónico Voltaje 5</t>
+  </si>
+  <si>
+    <t>L2 Armónico Voltaje 6</t>
+  </si>
+  <si>
+    <t>L2 Armónico Voltaje 7</t>
+  </si>
+  <si>
+    <t>L2 Armónico Voltaje 8</t>
+  </si>
+  <si>
+    <t>L2 Armónico Voltaje 9</t>
+  </si>
+  <si>
+    <t>L2 Armónico Voltaje 10</t>
+  </si>
+  <si>
+    <t>L2 Armónico Voltaje 11</t>
+  </si>
+  <si>
+    <t>L2 Armónico Voltaje 12</t>
+  </si>
+  <si>
+    <t>L2 Armónico Voltaje 13</t>
+  </si>
+  <si>
+    <t>L2 Armónico Voltaje 14</t>
+  </si>
+  <si>
+    <t>L2 Armónico Voltaje 15</t>
+  </si>
+  <si>
+    <t>L3 Fundamental Voltaje</t>
+  </si>
+  <si>
+    <t>L3 Armónico Voltaje 2</t>
+  </si>
+  <si>
+    <t>L3 Armónico Voltaje 3</t>
+  </si>
+  <si>
+    <t>L3 Armónico Voltaje 4</t>
+  </si>
+  <si>
+    <t>L3 Armónico Voltaje 5</t>
+  </si>
+  <si>
+    <t>L3 Armónico Voltaje 6</t>
+  </si>
+  <si>
+    <t>L3 Armónico Voltaje 7</t>
+  </si>
+  <si>
+    <t>L3 Armónico Voltaje 8</t>
+  </si>
+  <si>
+    <t>L3 Armónico Voltaje 9</t>
+  </si>
+  <si>
+    <t>L3 Armónico Voltaje 10</t>
+  </si>
+  <si>
+    <t>L3 Armónico Voltaje 11</t>
+  </si>
+  <si>
+    <t>L3 Armónico Voltaje 12</t>
+  </si>
+  <si>
+    <t>L3 Armónico Voltaje 13</t>
+  </si>
+  <si>
+    <t>L3 Armónico Voltaje 14</t>
+  </si>
+  <si>
+    <t>L3 Armónico Voltaje 15</t>
+  </si>
+  <si>
+    <t>L1 Fundamental Corriente</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 1</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 2</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 3</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 4</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 5</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 6</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 7</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 8</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 9</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 10</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 11</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 12</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 13</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 14</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 15</t>
+  </si>
+  <si>
+    <t>L2 Fundamental Corriente</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 1</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 2</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 3</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 4</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 5</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 6</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 7</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 8</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 9</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 10</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 11</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 12</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 13</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 14</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 15</t>
+  </si>
+  <si>
+    <t>L3 Fundamental Corriente</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 1</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 2</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 3</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 4</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 5</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 6</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 7</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 8</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 9</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 10</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 11</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 12</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 13</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 14</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 15</t>
+  </si>
+  <si>
+    <t>Total Energía Activa - Importación</t>
+  </si>
+  <si>
+    <t>Total Energía Activa - Exportación</t>
+  </si>
+  <si>
+    <t>Total Energía Reactiva - Importación</t>
+  </si>
+  <si>
+    <t>Total Energía Reactiva - Exportación</t>
+  </si>
+  <si>
+    <t>Total Energía Aparente</t>
+  </si>
+  <si>
+    <t>L1 Energía Activa - Importación</t>
+  </si>
+  <si>
+    <t>L1 Energía Activa - Exportación</t>
+  </si>
+  <si>
+    <t>L1 Energía Reactiva - Importación</t>
+  </si>
+  <si>
+    <t>L1 Energía Reactiva - Exportación</t>
+  </si>
+  <si>
+    <t>L1 Energía Aparente</t>
+  </si>
+  <si>
+    <t>L2 Energía Activa - Importación</t>
+  </si>
+  <si>
+    <t>L2 Energía Activa - Exportación</t>
+  </si>
+  <si>
+    <t>L2 Energía Reactiva - Importación</t>
+  </si>
+  <si>
+    <t>L2 Energía Reactiva - Exportación</t>
+  </si>
+  <si>
+    <t>L2 Energía Aparente</t>
+  </si>
+  <si>
+    <t>L3 Energía Activa - Importación</t>
+  </si>
+  <si>
+    <t>L3 Energía Activa - Exportación</t>
+  </si>
+  <si>
+    <t>L3 Energía Reactiva - Importación</t>
+  </si>
+  <si>
+    <t>L3 Energía Reactiva - Exportación</t>
+  </si>
+  <si>
+    <t>L3 Energía Aparente</t>
   </si>
 </sst>
 </file>
@@ -840,7 +1266,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -858,6 +1284,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -889,12 +1323,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1177,7 +1612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3339,32 +3774,2008 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80497A87-5197-4B2F-86F3-3DBD29A76890}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="3" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2.1659999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.99529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.7934000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.71192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.50005999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" t="s">
+        <v>279</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.36415999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" t="s">
+        <v>280</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>264</v>
+      </c>
+      <c r="B19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>264</v>
+      </c>
+      <c r="B23" t="s">
+        <v>286</v>
+      </c>
+      <c r="C23" t="s">
+        <v>286</v>
+      </c>
+      <c r="D23" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" t="s">
+        <v>287</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>264</v>
+      </c>
+      <c r="B25" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" t="s">
+        <v>288</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>264</v>
+      </c>
+      <c r="B26" t="s">
+        <v>289</v>
+      </c>
+      <c r="C26" t="s">
+        <v>289</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27" t="s">
+        <v>290</v>
+      </c>
+      <c r="C27" t="s">
+        <v>290</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>264</v>
+      </c>
+      <c r="B28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C28" t="s">
+        <v>291</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C29" t="s">
+        <v>292</v>
+      </c>
+      <c r="D29" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>264</v>
+      </c>
+      <c r="B30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D30" s="4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>264</v>
+      </c>
+      <c r="B31" t="s">
+        <v>294</v>
+      </c>
+      <c r="C31" t="s">
+        <v>294</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C32" t="s">
+        <v>295</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>264</v>
+      </c>
+      <c r="B33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C33" t="s">
+        <v>296</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>264</v>
+      </c>
+      <c r="B34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C34" t="s">
+        <v>297</v>
+      </c>
+      <c r="D34" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>264</v>
+      </c>
+      <c r="B35" t="s">
+        <v>298</v>
+      </c>
+      <c r="C35" t="s">
+        <v>298</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>264</v>
+      </c>
+      <c r="B36" t="s">
+        <v>299</v>
+      </c>
+      <c r="C36" t="s">
+        <v>299</v>
+      </c>
+      <c r="D36" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" t="s">
+        <v>300</v>
+      </c>
+      <c r="C37" t="s">
+        <v>300</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>264</v>
+      </c>
+      <c r="B38" t="s">
+        <v>301</v>
+      </c>
+      <c r="C38" t="s">
+        <v>301</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>264</v>
+      </c>
+      <c r="B39" t="s">
+        <v>302</v>
+      </c>
+      <c r="C39" t="s">
+        <v>302</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>264</v>
+      </c>
+      <c r="B40" t="s">
+        <v>303</v>
+      </c>
+      <c r="C40" t="s">
+        <v>303</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B41" t="s">
+        <v>304</v>
+      </c>
+      <c r="C41" t="s">
+        <v>304</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>264</v>
+      </c>
+      <c r="B42" t="s">
+        <v>305</v>
+      </c>
+      <c r="C42" t="s">
+        <v>305</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>264</v>
+      </c>
+      <c r="B43" t="s">
+        <v>306</v>
+      </c>
+      <c r="C43" t="s">
+        <v>306</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>264</v>
+      </c>
+      <c r="B44" t="s">
+        <v>307</v>
+      </c>
+      <c r="C44" t="s">
+        <v>307</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>264</v>
+      </c>
+      <c r="B45" t="s">
+        <v>308</v>
+      </c>
+      <c r="C45" t="s">
+        <v>308</v>
+      </c>
+      <c r="D45" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>309</v>
+      </c>
+      <c r="C46" t="s">
+        <v>309</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>264</v>
+      </c>
+      <c r="B47" t="s">
+        <v>310</v>
+      </c>
+      <c r="C47" t="s">
+        <v>310</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>264</v>
+      </c>
+      <c r="B48" t="s">
+        <v>311</v>
+      </c>
+      <c r="C48" t="s">
+        <v>311</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>264</v>
+      </c>
+      <c r="B49" t="s">
+        <v>312</v>
+      </c>
+      <c r="C49" t="s">
+        <v>312</v>
+      </c>
+      <c r="D49" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>264</v>
+      </c>
+      <c r="B50" t="s">
+        <v>313</v>
+      </c>
+      <c r="C50" t="s">
+        <v>313</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>264</v>
+      </c>
+      <c r="B51" t="s">
+        <v>314</v>
+      </c>
+      <c r="C51" t="s">
+        <v>314</v>
+      </c>
+      <c r="D51" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>264</v>
+      </c>
+      <c r="B52" t="s">
+        <v>315</v>
+      </c>
+      <c r="C52" t="s">
+        <v>315</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>264</v>
+      </c>
+      <c r="B53" t="s">
+        <v>316</v>
+      </c>
+      <c r="C53" t="s">
+        <v>316</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>264</v>
+      </c>
+      <c r="B54" t="s">
+        <v>317</v>
+      </c>
+      <c r="C54" t="s">
+        <v>317</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>264</v>
+      </c>
+      <c r="B55" t="s">
+        <v>318</v>
+      </c>
+      <c r="C55" t="s">
+        <v>318</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>264</v>
+      </c>
+      <c r="B56" t="s">
+        <v>319</v>
+      </c>
+      <c r="C56" t="s">
+        <v>319</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>264</v>
+      </c>
+      <c r="B57" t="s">
+        <v>320</v>
+      </c>
+      <c r="C57" t="s">
+        <v>320</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>264</v>
+      </c>
+      <c r="B58" t="s">
+        <v>321</v>
+      </c>
+      <c r="C58" t="s">
+        <v>321</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>264</v>
+      </c>
+      <c r="B59" t="s">
+        <v>322</v>
+      </c>
+      <c r="C59" t="s">
+        <v>322</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>264</v>
+      </c>
+      <c r="B60" t="s">
+        <v>323</v>
+      </c>
+      <c r="C60" t="s">
+        <v>323</v>
+      </c>
+      <c r="D60" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>264</v>
+      </c>
+      <c r="B61" t="s">
+        <v>324</v>
+      </c>
+      <c r="C61" t="s">
+        <v>324</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>264</v>
+      </c>
+      <c r="B62" t="s">
+        <v>325</v>
+      </c>
+      <c r="C62" t="s">
+        <v>325</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B63" t="s">
+        <v>326</v>
+      </c>
+      <c r="C63" t="s">
+        <v>326</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>264</v>
+      </c>
+      <c r="B64" t="s">
+        <v>327</v>
+      </c>
+      <c r="C64" t="s">
+        <v>327</v>
+      </c>
+      <c r="D64" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>264</v>
+      </c>
+      <c r="B65" t="s">
+        <v>328</v>
+      </c>
+      <c r="C65" t="s">
+        <v>328</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>264</v>
+      </c>
+      <c r="B66" t="s">
+        <v>329</v>
+      </c>
+      <c r="C66" t="s">
+        <v>329</v>
+      </c>
+      <c r="D66" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>264</v>
+      </c>
+      <c r="B67" t="s">
+        <v>330</v>
+      </c>
+      <c r="C67" t="s">
+        <v>330</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>264</v>
+      </c>
+      <c r="B68" t="s">
+        <v>331</v>
+      </c>
+      <c r="C68" t="s">
+        <v>331</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>264</v>
+      </c>
+      <c r="B69" t="s">
+        <v>332</v>
+      </c>
+      <c r="C69" t="s">
+        <v>332</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>264</v>
+      </c>
+      <c r="B70" t="s">
+        <v>333</v>
+      </c>
+      <c r="C70" t="s">
+        <v>333</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>264</v>
+      </c>
+      <c r="B71" t="s">
+        <v>334</v>
+      </c>
+      <c r="C71" t="s">
+        <v>334</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>264</v>
+      </c>
+      <c r="B72" t="s">
+        <v>335</v>
+      </c>
+      <c r="C72" t="s">
+        <v>335</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>264</v>
+      </c>
+      <c r="B73" t="s">
+        <v>336</v>
+      </c>
+      <c r="C73" t="s">
+        <v>336</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>264</v>
+      </c>
+      <c r="B74" t="s">
+        <v>337</v>
+      </c>
+      <c r="C74" t="s">
+        <v>337</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>264</v>
+      </c>
+      <c r="B75" t="s">
+        <v>338</v>
+      </c>
+      <c r="C75" t="s">
+        <v>338</v>
+      </c>
+      <c r="D75" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>264</v>
+      </c>
+      <c r="B76" t="s">
+        <v>339</v>
+      </c>
+      <c r="C76" t="s">
+        <v>339</v>
+      </c>
+      <c r="D76" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>264</v>
+      </c>
+      <c r="B77" t="s">
+        <v>340</v>
+      </c>
+      <c r="C77" t="s">
+        <v>340</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>264</v>
+      </c>
+      <c r="B78" t="s">
+        <v>341</v>
+      </c>
+      <c r="C78" t="s">
+        <v>341</v>
+      </c>
+      <c r="D78" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>264</v>
+      </c>
+      <c r="B79" t="s">
+        <v>342</v>
+      </c>
+      <c r="C79" t="s">
+        <v>342</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>264</v>
+      </c>
+      <c r="B80" t="s">
+        <v>343</v>
+      </c>
+      <c r="C80" t="s">
+        <v>343</v>
+      </c>
+      <c r="D80" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>264</v>
+      </c>
+      <c r="B81" t="s">
+        <v>344</v>
+      </c>
+      <c r="C81" t="s">
+        <v>344</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>264</v>
+      </c>
+      <c r="B82" t="s">
+        <v>345</v>
+      </c>
+      <c r="C82" t="s">
+        <v>345</v>
+      </c>
+      <c r="D82" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>264</v>
+      </c>
+      <c r="B83" t="s">
+        <v>346</v>
+      </c>
+      <c r="C83" t="s">
+        <v>346</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>264</v>
+      </c>
+      <c r="B84" t="s">
+        <v>347</v>
+      </c>
+      <c r="C84" t="s">
+        <v>347</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>264</v>
+      </c>
+      <c r="B85" t="s">
+        <v>348</v>
+      </c>
+      <c r="C85" t="s">
+        <v>348</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>264</v>
+      </c>
+      <c r="B86" t="s">
+        <v>349</v>
+      </c>
+      <c r="C86" t="s">
+        <v>349</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>264</v>
+      </c>
+      <c r="B87" t="s">
+        <v>350</v>
+      </c>
+      <c r="C87" t="s">
+        <v>350</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>264</v>
+      </c>
+      <c r="B88" t="s">
+        <v>351</v>
+      </c>
+      <c r="C88" t="s">
+        <v>351</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>264</v>
+      </c>
+      <c r="B89" t="s">
+        <v>352</v>
+      </c>
+      <c r="C89" t="s">
+        <v>352</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>264</v>
+      </c>
+      <c r="B90" t="s">
+        <v>353</v>
+      </c>
+      <c r="C90" t="s">
+        <v>353</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>264</v>
+      </c>
+      <c r="B91" t="s">
+        <v>354</v>
+      </c>
+      <c r="C91" t="s">
+        <v>354</v>
+      </c>
+      <c r="D91" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>264</v>
+      </c>
+      <c r="B92" t="s">
+        <v>355</v>
+      </c>
+      <c r="C92" t="s">
+        <v>355</v>
+      </c>
+      <c r="D92" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>264</v>
+      </c>
+      <c r="B93" t="s">
+        <v>356</v>
+      </c>
+      <c r="C93" t="s">
+        <v>356</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>264</v>
+      </c>
+      <c r="B94" t="s">
+        <v>357</v>
+      </c>
+      <c r="C94" t="s">
+        <v>357</v>
+      </c>
+      <c r="D94" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>264</v>
+      </c>
+      <c r="B95" t="s">
+        <v>358</v>
+      </c>
+      <c r="C95" t="s">
+        <v>358</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>264</v>
+      </c>
+      <c r="B96" t="s">
+        <v>359</v>
+      </c>
+      <c r="C96" t="s">
+        <v>359</v>
+      </c>
+      <c r="D96" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>264</v>
+      </c>
+      <c r="B97" t="s">
+        <v>360</v>
+      </c>
+      <c r="C97" t="s">
+        <v>360</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>264</v>
+      </c>
+      <c r="B98" t="s">
+        <v>361</v>
+      </c>
+      <c r="C98" t="s">
+        <v>361</v>
+      </c>
+      <c r="D98" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>264</v>
+      </c>
+      <c r="B99" t="s">
+        <v>362</v>
+      </c>
+      <c r="C99" t="s">
+        <v>362</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>264</v>
+      </c>
+      <c r="B100" t="s">
+        <v>363</v>
+      </c>
+      <c r="C100" t="s">
+        <v>363</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>264</v>
+      </c>
+      <c r="B101" t="s">
+        <v>364</v>
+      </c>
+      <c r="C101" t="s">
+        <v>364</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>264</v>
+      </c>
+      <c r="B102" t="s">
+        <v>365</v>
+      </c>
+      <c r="C102" t="s">
+        <v>365</v>
+      </c>
+      <c r="D102" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>264</v>
+      </c>
+      <c r="B103" t="s">
+        <v>366</v>
+      </c>
+      <c r="C103" t="s">
+        <v>366</v>
+      </c>
+      <c r="D103" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>264</v>
+      </c>
+      <c r="B104" t="s">
+        <v>367</v>
+      </c>
+      <c r="C104" t="s">
+        <v>367</v>
+      </c>
+      <c r="D104" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>264</v>
+      </c>
+      <c r="B105" t="s">
+        <v>368</v>
+      </c>
+      <c r="C105" t="s">
+        <v>368</v>
+      </c>
+      <c r="D105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>264</v>
+      </c>
+      <c r="B106" t="s">
+        <v>369</v>
+      </c>
+      <c r="C106" t="s">
+        <v>369</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>264</v>
+      </c>
+      <c r="B107" t="s">
+        <v>370</v>
+      </c>
+      <c r="C107" t="s">
+        <v>370</v>
+      </c>
+      <c r="D107" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>264</v>
+      </c>
+      <c r="B108" t="s">
+        <v>371</v>
+      </c>
+      <c r="C108" t="s">
+        <v>371</v>
+      </c>
+      <c r="D108" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>264</v>
+      </c>
+      <c r="B109" t="s">
+        <v>372</v>
+      </c>
+      <c r="C109" t="s">
+        <v>372</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>264</v>
+      </c>
+      <c r="B110" t="s">
+        <v>373</v>
+      </c>
+      <c r="C110" t="s">
+        <v>373</v>
+      </c>
+      <c r="D110" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>264</v>
+      </c>
+      <c r="B111" t="s">
+        <v>374</v>
+      </c>
+      <c r="C111" t="s">
+        <v>374</v>
+      </c>
+      <c r="D111" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>264</v>
+      </c>
+      <c r="B112" t="s">
+        <v>375</v>
+      </c>
+      <c r="C112" t="s">
+        <v>375</v>
+      </c>
+      <c r="D112" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>264</v>
+      </c>
+      <c r="B113" t="s">
+        <v>376</v>
+      </c>
+      <c r="C113" t="s">
+        <v>376</v>
+      </c>
+      <c r="D113" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>264</v>
+      </c>
+      <c r="B114" t="s">
+        <v>377</v>
+      </c>
+      <c r="C114" t="s">
+        <v>377</v>
+      </c>
+      <c r="D114" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>264</v>
+      </c>
+      <c r="B115" t="s">
+        <v>378</v>
+      </c>
+      <c r="C115" t="s">
+        <v>378</v>
+      </c>
+      <c r="D115" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>264</v>
+      </c>
+      <c r="B116" t="s">
+        <v>379</v>
+      </c>
+      <c r="C116" t="s">
+        <v>379</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>264</v>
+      </c>
+      <c r="B117" t="s">
+        <v>380</v>
+      </c>
+      <c r="C117" t="s">
+        <v>380</v>
+      </c>
+      <c r="D117" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>264</v>
+      </c>
+      <c r="B118" t="s">
+        <v>381</v>
+      </c>
+      <c r="C118" t="s">
+        <v>381</v>
+      </c>
+      <c r="D118" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>264</v>
+      </c>
+      <c r="B119" t="s">
+        <v>382</v>
+      </c>
+      <c r="C119" t="s">
+        <v>382</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>264</v>
+      </c>
+      <c r="B120" t="s">
+        <v>383</v>
+      </c>
+      <c r="C120" t="s">
+        <v>383</v>
+      </c>
+      <c r="D120" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>264</v>
+      </c>
+      <c r="B121" t="s">
+        <v>384</v>
+      </c>
+      <c r="C121" t="s">
+        <v>384</v>
+      </c>
+      <c r="D121" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>264</v>
+      </c>
+      <c r="B122" t="s">
+        <v>385</v>
+      </c>
+      <c r="C122" t="s">
+        <v>385</v>
+      </c>
+      <c r="D122" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>264</v>
+      </c>
+      <c r="B123" t="s">
+        <v>386</v>
+      </c>
+      <c r="C123" t="s">
+        <v>386</v>
+      </c>
+      <c r="D123" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>264</v>
+      </c>
+      <c r="B124" t="s">
+        <v>387</v>
+      </c>
+      <c r="C124" t="s">
+        <v>387</v>
+      </c>
+      <c r="D124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>264</v>
+      </c>
+      <c r="B125" t="s">
+        <v>388</v>
+      </c>
+      <c r="C125" t="s">
+        <v>388</v>
+      </c>
+      <c r="D125" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>264</v>
+      </c>
+      <c r="B126" t="s">
+        <v>389</v>
+      </c>
+      <c r="C126" t="s">
+        <v>389</v>
+      </c>
+      <c r="D126" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>264</v>
+      </c>
+      <c r="B127" t="s">
+        <v>390</v>
+      </c>
+      <c r="C127" t="s">
+        <v>390</v>
+      </c>
+      <c r="D127" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>264</v>
+      </c>
+      <c r="B128" t="s">
+        <v>391</v>
+      </c>
+      <c r="C128" t="s">
+        <v>391</v>
+      </c>
+      <c r="D128" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>264</v>
+      </c>
+      <c r="B129" t="s">
+        <v>392</v>
+      </c>
+      <c r="C129" t="s">
+        <v>392</v>
+      </c>
+      <c r="D129" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>264</v>
+      </c>
+      <c r="B130" t="s">
+        <v>393</v>
+      </c>
+      <c r="C130" t="s">
+        <v>393</v>
+      </c>
+      <c r="D130" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>264</v>
+      </c>
+      <c r="B131" t="s">
+        <v>394</v>
+      </c>
+      <c r="C131" t="s">
+        <v>394</v>
+      </c>
+      <c r="D131" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>264</v>
+      </c>
+      <c r="B132" t="s">
+        <v>395</v>
+      </c>
+      <c r="C132" t="s">
+        <v>395</v>
+      </c>
+      <c r="D132" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" t="s">
+        <v>396</v>
+      </c>
+      <c r="C133" t="s">
+        <v>396</v>
+      </c>
+      <c r="D133" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>264</v>
+      </c>
+      <c r="B134" t="s">
+        <v>397</v>
+      </c>
+      <c r="C134" t="s">
+        <v>397</v>
+      </c>
+      <c r="D134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>264</v>
+      </c>
+      <c r="B135" t="s">
+        <v>398</v>
+      </c>
+      <c r="C135" t="s">
+        <v>398</v>
+      </c>
+      <c r="D135" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>264</v>
+      </c>
+      <c r="B136" t="s">
+        <v>399</v>
+      </c>
+      <c r="C136" t="s">
+        <v>399</v>
+      </c>
+      <c r="D136" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>264</v>
+      </c>
+      <c r="B137" t="s">
+        <v>400</v>
+      </c>
+      <c r="C137" t="s">
+        <v>400</v>
+      </c>
+      <c r="D137" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>264</v>
+      </c>
+      <c r="B138" t="s">
+        <v>401</v>
+      </c>
+      <c r="C138" t="s">
+        <v>401</v>
+      </c>
+      <c r="D138" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>264</v>
+      </c>
+      <c r="B139" t="s">
+        <v>402</v>
+      </c>
+      <c r="C139" t="s">
+        <v>402</v>
+      </c>
+      <c r="D139" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>264</v>
+      </c>
+      <c r="B140" t="s">
+        <v>403</v>
+      </c>
+      <c r="C140" t="s">
+        <v>403</v>
+      </c>
+      <c r="D140" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>264</v>
+      </c>
+      <c r="B141" t="s">
+        <v>404</v>
+      </c>
+      <c r="C141" t="s">
+        <v>404</v>
+      </c>
+      <c r="D141" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>264</v>
+      </c>
+      <c r="B142" t="s">
+        <v>405</v>
+      </c>
+      <c r="C142" t="s">
+        <v>405</v>
+      </c>
+      <c r="D142" s="4">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/backend/v1.0/mockDB/Devices_test.xlsx
+++ b/backend/v1.0/mockDB/Devices_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMARTGRID_CALI\backend\v1.0\mockDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betan\Documents\GitHub\backend\v1.0\mockDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D43483-596E-45B8-A25D-7ED4A07D609B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724BD2AD-4CBA-4866-B9DD-3F1739951181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydro" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="408">
   <si>
     <t>Device</t>
   </si>
@@ -923,30 +923,6 @@
     <t>L1 Fundamental Voltaje</t>
   </si>
   <si>
-    <t>L1 Armónico Voltaje 2</t>
-  </si>
-  <si>
-    <t>L1 Armónico Voltaje 3</t>
-  </si>
-  <si>
-    <t>L1 Armónico Voltaje 4</t>
-  </si>
-  <si>
-    <t>L1 Armónico Voltaje 5</t>
-  </si>
-  <si>
-    <t>L1 Armónico Voltaje 6</t>
-  </si>
-  <si>
-    <t>L1 Armónico Voltaje 7</t>
-  </si>
-  <si>
-    <t>L1 Armónico Voltaje 8</t>
-  </si>
-  <si>
-    <t>L1 Armónico Voltaje 9</t>
-  </si>
-  <si>
     <t>L1 Armónico Voltaje 10</t>
   </si>
   <si>
@@ -968,30 +944,6 @@
     <t>L2 Fundamental Voltaje</t>
   </si>
   <si>
-    <t>L2 Armónico Voltaje 2</t>
-  </si>
-  <si>
-    <t>L2 Armónico Voltaje 3</t>
-  </si>
-  <si>
-    <t>L2 Armónico Voltaje 4</t>
-  </si>
-  <si>
-    <t>L2 Armónico Voltaje 5</t>
-  </si>
-  <si>
-    <t>L2 Armónico Voltaje 6</t>
-  </si>
-  <si>
-    <t>L2 Armónico Voltaje 7</t>
-  </si>
-  <si>
-    <t>L2 Armónico Voltaje 8</t>
-  </si>
-  <si>
-    <t>L2 Armónico Voltaje 9</t>
-  </si>
-  <si>
     <t>L2 Armónico Voltaje 10</t>
   </si>
   <si>
@@ -1013,30 +965,6 @@
     <t>L3 Fundamental Voltaje</t>
   </si>
   <si>
-    <t>L3 Armónico Voltaje 2</t>
-  </si>
-  <si>
-    <t>L3 Armónico Voltaje 3</t>
-  </si>
-  <si>
-    <t>L3 Armónico Voltaje 4</t>
-  </si>
-  <si>
-    <t>L3 Armónico Voltaje 5</t>
-  </si>
-  <si>
-    <t>L3 Armónico Voltaje 6</t>
-  </si>
-  <si>
-    <t>L3 Armónico Voltaje 7</t>
-  </si>
-  <si>
-    <t>L3 Armónico Voltaje 8</t>
-  </si>
-  <si>
-    <t>L3 Armónico Voltaje 9</t>
-  </si>
-  <si>
     <t>L3 Armónico Voltaje 10</t>
   </si>
   <si>
@@ -1061,30 +989,6 @@
     <t>L1 Armónico Corriente 1</t>
   </si>
   <si>
-    <t>L1 Armónico Corriente 2</t>
-  </si>
-  <si>
-    <t>L1 Armónico Corriente 3</t>
-  </si>
-  <si>
-    <t>L1 Armónico Corriente 4</t>
-  </si>
-  <si>
-    <t>L1 Armónico Corriente 5</t>
-  </si>
-  <si>
-    <t>L1 Armónico Corriente 6</t>
-  </si>
-  <si>
-    <t>L1 Armónico Corriente 7</t>
-  </si>
-  <si>
-    <t>L1 Armónico Corriente 8</t>
-  </si>
-  <si>
-    <t>L1 Armónico Corriente 9</t>
-  </si>
-  <si>
     <t>L1 Armónico Corriente 10</t>
   </si>
   <si>
@@ -1109,30 +1013,6 @@
     <t>L2 Armónico Corriente 1</t>
   </si>
   <si>
-    <t>L2 Armónico Corriente 2</t>
-  </si>
-  <si>
-    <t>L2 Armónico Corriente 3</t>
-  </si>
-  <si>
-    <t>L2 Armónico Corriente 4</t>
-  </si>
-  <si>
-    <t>L2 Armónico Corriente 5</t>
-  </si>
-  <si>
-    <t>L2 Armónico Corriente 6</t>
-  </si>
-  <si>
-    <t>L2 Armónico Corriente 7</t>
-  </si>
-  <si>
-    <t>L2 Armónico Corriente 8</t>
-  </si>
-  <si>
-    <t>L2 Armónico Corriente 9</t>
-  </si>
-  <si>
     <t>L2 Armónico Corriente 10</t>
   </si>
   <si>
@@ -1157,30 +1037,6 @@
     <t>L3 Armónico Corriente 1</t>
   </si>
   <si>
-    <t>L3 Armónico Corriente 2</t>
-  </si>
-  <si>
-    <t>L3 Armónico Corriente 3</t>
-  </si>
-  <si>
-    <t>L3 Armónico Corriente 4</t>
-  </si>
-  <si>
-    <t>L3 Armónico Corriente 5</t>
-  </si>
-  <si>
-    <t>L3 Armónico Corriente 6</t>
-  </si>
-  <si>
-    <t>L3 Armónico Corriente 7</t>
-  </si>
-  <si>
-    <t>L3 Armónico Corriente 8</t>
-  </si>
-  <si>
-    <t>L3 Armónico Corriente 9</t>
-  </si>
-  <si>
     <t>L3 Armónico Corriente 10</t>
   </si>
   <si>
@@ -1257,6 +1113,156 @@
   </si>
   <si>
     <t>L3 Energía Aparente</t>
+  </si>
+  <si>
+    <t>L1 Armónico Voltaje 02</t>
+  </si>
+  <si>
+    <t>L2 Armónico Voltaje 02</t>
+  </si>
+  <si>
+    <t>L3 Armónico Voltaje 02</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 02</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 02</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 02</t>
+  </si>
+  <si>
+    <t>L1 Armónico Voltaje 03</t>
+  </si>
+  <si>
+    <t>L2 Armónico Voltaje 03</t>
+  </si>
+  <si>
+    <t>L3 Armónico Voltaje 03</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 03</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 03</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 03</t>
+  </si>
+  <si>
+    <t>L1 Armónico Voltaje 04</t>
+  </si>
+  <si>
+    <t>L2 Armónico Voltaje 04</t>
+  </si>
+  <si>
+    <t>L3 Armónico Voltaje 04</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 04</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 04</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 04</t>
+  </si>
+  <si>
+    <t>L1 Armónico Voltaje 05</t>
+  </si>
+  <si>
+    <t>L2 Armónico Voltaje 05</t>
+  </si>
+  <si>
+    <t>L3 Armónico Voltaje 05</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 05</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 05</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 05</t>
+  </si>
+  <si>
+    <t>L1 Armónico Voltaje 06</t>
+  </si>
+  <si>
+    <t>L2 Armónico Voltaje 06</t>
+  </si>
+  <si>
+    <t>L3 Armónico Voltaje 06</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 06</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 06</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 06</t>
+  </si>
+  <si>
+    <t>L1 Armónico Voltaje 07</t>
+  </si>
+  <si>
+    <t>L2 Armónico Voltaje 07</t>
+  </si>
+  <si>
+    <t>L3 Armónico Voltaje 07</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 07</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 07</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 07</t>
+  </si>
+  <si>
+    <t>L1 Armónico Voltaje 08</t>
+  </si>
+  <si>
+    <t>L2 Armónico Voltaje 08</t>
+  </si>
+  <si>
+    <t>L3 Armónico Voltaje 08</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 08</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 08</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 08</t>
+  </si>
+  <si>
+    <t>L1 Armónico Voltaje 09</t>
+  </si>
+  <si>
+    <t>L2 Armónico Voltaje 09</t>
+  </si>
+  <si>
+    <t>L3 Armónico Voltaje 09</t>
+  </si>
+  <si>
+    <t>L1 Armónico Corriente 09</t>
+  </si>
+  <si>
+    <t>L2 Armónico Corriente 09</t>
+  </si>
+  <si>
+    <t>L3 Armónico Corriente 09</t>
+  </si>
+  <si>
+    <t>P001</t>
+  </si>
+  <si>
+    <t>P002</t>
   </si>
 </sst>
 </file>
@@ -1610,10 +1616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1662,7 +1668,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1676,7 +1682,7 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1690,7 +1696,7 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2133,6 +2139,28 @@
       </c>
       <c r="D36">
         <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>406</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>407</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3776,8 +3804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80497A87-5197-4B2F-86F3-3DBD29A76890}">
   <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3909,7 +3937,7 @@
         <v>272</v>
       </c>
       <c r="D9" s="4">
-        <v>208</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4105,7 +4133,7 @@
         <v>286</v>
       </c>
       <c r="D23" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4211,10 +4239,10 @@
         <v>264</v>
       </c>
       <c r="B31" t="s">
-        <v>294</v>
+        <v>358</v>
       </c>
       <c r="C31" t="s">
-        <v>294</v>
+        <v>358</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -4225,10 +4253,10 @@
         <v>264</v>
       </c>
       <c r="B32" t="s">
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="C32" t="s">
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="D32" s="4">
         <v>2</v>
@@ -4239,10 +4267,10 @@
         <v>264</v>
       </c>
       <c r="B33" t="s">
-        <v>296</v>
+        <v>370</v>
       </c>
       <c r="C33" t="s">
-        <v>296</v>
+        <v>370</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -4253,10 +4281,10 @@
         <v>264</v>
       </c>
       <c r="B34" t="s">
-        <v>297</v>
+        <v>376</v>
       </c>
       <c r="C34" t="s">
-        <v>297</v>
+        <v>376</v>
       </c>
       <c r="D34" s="4">
         <v>5</v>
@@ -4267,10 +4295,10 @@
         <v>264</v>
       </c>
       <c r="B35" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
       <c r="C35" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -4281,10 +4309,10 @@
         <v>264</v>
       </c>
       <c r="B36" t="s">
-        <v>299</v>
+        <v>388</v>
       </c>
       <c r="C36" t="s">
-        <v>299</v>
+        <v>388</v>
       </c>
       <c r="D36" s="4">
         <v>3</v>
@@ -4295,10 +4323,10 @@
         <v>264</v>
       </c>
       <c r="B37" t="s">
-        <v>300</v>
+        <v>394</v>
       </c>
       <c r="C37" t="s">
-        <v>300</v>
+        <v>394</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -4309,10 +4337,10 @@
         <v>264</v>
       </c>
       <c r="B38" t="s">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="C38" t="s">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -4323,10 +4351,10 @@
         <v>264</v>
       </c>
       <c r="B39" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C39" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -4337,10 +4365,10 @@
         <v>264</v>
       </c>
       <c r="B40" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C40" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -4351,10 +4379,10 @@
         <v>264</v>
       </c>
       <c r="B41" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C41" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -4365,10 +4393,10 @@
         <v>264</v>
       </c>
       <c r="B42" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C42" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -4379,10 +4407,10 @@
         <v>264</v>
       </c>
       <c r="B43" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C43" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -4393,10 +4421,10 @@
         <v>264</v>
       </c>
       <c r="B44" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C44" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -4407,10 +4435,10 @@
         <v>264</v>
       </c>
       <c r="B45" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C45" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D45" s="4">
         <v>119</v>
@@ -4421,10 +4449,10 @@
         <v>264</v>
       </c>
       <c r="B46" t="s">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="C46" t="s">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -4435,10 +4463,10 @@
         <v>264</v>
       </c>
       <c r="B47" t="s">
-        <v>310</v>
+        <v>365</v>
       </c>
       <c r="C47" t="s">
-        <v>310</v>
+        <v>365</v>
       </c>
       <c r="D47" s="4">
         <v>2</v>
@@ -4449,10 +4477,10 @@
         <v>264</v>
       </c>
       <c r="B48" t="s">
-        <v>311</v>
+        <v>371</v>
       </c>
       <c r="C48" t="s">
-        <v>311</v>
+        <v>371</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -4463,10 +4491,10 @@
         <v>264</v>
       </c>
       <c r="B49" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="C49" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="D49" s="4">
         <v>5</v>
@@ -4477,10 +4505,10 @@
         <v>264</v>
       </c>
       <c r="B50" t="s">
-        <v>313</v>
+        <v>383</v>
       </c>
       <c r="C50" t="s">
-        <v>313</v>
+        <v>383</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -4491,10 +4519,10 @@
         <v>264</v>
       </c>
       <c r="B51" t="s">
-        <v>314</v>
+        <v>389</v>
       </c>
       <c r="C51" t="s">
-        <v>314</v>
+        <v>389</v>
       </c>
       <c r="D51" s="4">
         <v>3</v>
@@ -4505,10 +4533,10 @@
         <v>264</v>
       </c>
       <c r="B52" t="s">
-        <v>315</v>
+        <v>395</v>
       </c>
       <c r="C52" t="s">
-        <v>315</v>
+        <v>395</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -4519,10 +4547,10 @@
         <v>264</v>
       </c>
       <c r="B53" t="s">
-        <v>316</v>
+        <v>401</v>
       </c>
       <c r="C53" t="s">
-        <v>316</v>
+        <v>401</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -4533,10 +4561,10 @@
         <v>264</v>
       </c>
       <c r="B54" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="C54" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -4547,10 +4575,10 @@
         <v>264</v>
       </c>
       <c r="B55" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="C55" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -4561,10 +4589,10 @@
         <v>264</v>
       </c>
       <c r="B56" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="C56" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -4575,10 +4603,10 @@
         <v>264</v>
       </c>
       <c r="B57" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="C57" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -4589,10 +4617,10 @@
         <v>264</v>
       </c>
       <c r="B58" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="C58" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -4603,10 +4631,10 @@
         <v>264</v>
       </c>
       <c r="B59" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="C59" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -4617,10 +4645,10 @@
         <v>264</v>
       </c>
       <c r="B60" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="C60" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D60" s="4">
         <v>120</v>
@@ -4631,10 +4659,10 @@
         <v>264</v>
       </c>
       <c r="B61" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="C61" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -4645,10 +4673,10 @@
         <v>264</v>
       </c>
       <c r="B62" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="C62" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="D62" s="4">
         <v>2</v>
@@ -4659,10 +4687,10 @@
         <v>264</v>
       </c>
       <c r="B63" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="C63" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -4673,10 +4701,10 @@
         <v>264</v>
       </c>
       <c r="B64" t="s">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="C64" t="s">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="D64" s="4">
         <v>5</v>
@@ -4687,10 +4715,10 @@
         <v>264</v>
       </c>
       <c r="B65" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="C65" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -4701,10 +4729,10 @@
         <v>264</v>
       </c>
       <c r="B66" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="C66" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="D66" s="4">
         <v>3</v>
@@ -4715,10 +4743,10 @@
         <v>264</v>
       </c>
       <c r="B67" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="C67" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -4729,10 +4757,10 @@
         <v>264</v>
       </c>
       <c r="B68" t="s">
-        <v>331</v>
+        <v>402</v>
       </c>
       <c r="C68" t="s">
-        <v>331</v>
+        <v>402</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -4743,10 +4771,10 @@
         <v>264</v>
       </c>
       <c r="B69" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="C69" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -4757,10 +4785,10 @@
         <v>264</v>
       </c>
       <c r="B70" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="C70" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -4771,10 +4799,10 @@
         <v>264</v>
       </c>
       <c r="B71" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="C71" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -4785,10 +4813,10 @@
         <v>264</v>
       </c>
       <c r="B72" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="C72" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -4799,10 +4827,10 @@
         <v>264</v>
       </c>
       <c r="B73" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="C73" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -4813,10 +4841,10 @@
         <v>264</v>
       </c>
       <c r="B74" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="C74" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -4827,10 +4855,10 @@
         <v>264</v>
       </c>
       <c r="B75" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="C75" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="D75" s="4">
         <v>18</v>
@@ -4841,10 +4869,10 @@
         <v>264</v>
       </c>
       <c r="B76" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="C76" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="D76" s="4">
         <v>99</v>
@@ -4855,10 +4883,10 @@
         <v>264</v>
       </c>
       <c r="B77" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="C77" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -4869,10 +4897,10 @@
         <v>264</v>
       </c>
       <c r="B78" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C78" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="D78" s="4">
         <v>2</v>
@@ -4883,10 +4911,10 @@
         <v>264</v>
       </c>
       <c r="B79" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="C79" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -4897,10 +4925,10 @@
         <v>264</v>
       </c>
       <c r="B80" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="C80" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="D80" s="4">
         <v>5</v>
@@ -4911,10 +4939,10 @@
         <v>264</v>
       </c>
       <c r="B81" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="C81" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -4925,10 +4953,10 @@
         <v>264</v>
       </c>
       <c r="B82" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="C82" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="D82" s="4">
         <v>3</v>
@@ -4939,10 +4967,10 @@
         <v>264</v>
       </c>
       <c r="B83" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="C83" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -4953,10 +4981,10 @@
         <v>264</v>
       </c>
       <c r="B84" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="C84" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -4967,10 +4995,10 @@
         <v>264</v>
       </c>
       <c r="B85" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="C85" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -4981,10 +5009,10 @@
         <v>264</v>
       </c>
       <c r="B86" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="C86" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -4995,10 +5023,10 @@
         <v>264</v>
       </c>
       <c r="B87" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="C87" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -5009,10 +5037,10 @@
         <v>264</v>
       </c>
       <c r="B88" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="C88" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -5023,10 +5051,10 @@
         <v>264</v>
       </c>
       <c r="B89" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="C89" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -5037,10 +5065,10 @@
         <v>264</v>
       </c>
       <c r="B90" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="C90" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -5051,10 +5079,10 @@
         <v>264</v>
       </c>
       <c r="B91" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="C91" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="D91" s="4">
         <v>16</v>
@@ -5065,10 +5093,10 @@
         <v>264</v>
       </c>
       <c r="B92" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="C92" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="D92" s="4">
         <v>99</v>
@@ -5079,10 +5107,10 @@
         <v>264</v>
       </c>
       <c r="B93" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C93" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -5093,10 +5121,10 @@
         <v>264</v>
       </c>
       <c r="B94" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C94" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="D94" s="4">
         <v>2</v>
@@ -5107,10 +5135,10 @@
         <v>264</v>
       </c>
       <c r="B95" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="C95" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -5121,10 +5149,10 @@
         <v>264</v>
       </c>
       <c r="B96" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="C96" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="D96" s="4">
         <v>5</v>
@@ -5135,10 +5163,10 @@
         <v>264</v>
       </c>
       <c r="B97" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="C97" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -5149,10 +5177,10 @@
         <v>264</v>
       </c>
       <c r="B98" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="C98" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="D98" s="4">
         <v>3</v>
@@ -5163,10 +5191,10 @@
         <v>264</v>
       </c>
       <c r="B99" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="C99" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -5177,10 +5205,10 @@
         <v>264</v>
       </c>
       <c r="B100" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="C100" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -5191,10 +5219,10 @@
         <v>264</v>
       </c>
       <c r="B101" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="C101" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -5205,10 +5233,10 @@
         <v>264</v>
       </c>
       <c r="B102" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="C102" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
@@ -5219,10 +5247,10 @@
         <v>264</v>
       </c>
       <c r="B103" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="C103" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -5233,10 +5261,10 @@
         <v>264</v>
       </c>
       <c r="B104" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="C104" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -5247,10 +5275,10 @@
         <v>264</v>
       </c>
       <c r="B105" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="C105" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -5261,10 +5289,10 @@
         <v>264</v>
       </c>
       <c r="B106" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="C106" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -5275,10 +5303,10 @@
         <v>264</v>
       </c>
       <c r="B107" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="C107" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="D107" s="4">
         <v>14</v>
@@ -5289,10 +5317,10 @@
         <v>264</v>
       </c>
       <c r="B108" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="C108" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="D108" s="4">
         <v>99</v>
@@ -5303,10 +5331,10 @@
         <v>264</v>
       </c>
       <c r="B109" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C109" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -5317,10 +5345,10 @@
         <v>264</v>
       </c>
       <c r="B110" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C110" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D110" s="4">
         <v>2</v>
@@ -5331,10 +5359,10 @@
         <v>264</v>
       </c>
       <c r="B111" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C111" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -5345,10 +5373,10 @@
         <v>264</v>
       </c>
       <c r="B112" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C112" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D112" s="4">
         <v>5</v>
@@ -5359,10 +5387,10 @@
         <v>264</v>
       </c>
       <c r="B113" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C113" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -5373,10 +5401,10 @@
         <v>264</v>
       </c>
       <c r="B114" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="C114" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="D114" s="4">
         <v>3</v>
@@ -5387,10 +5415,10 @@
         <v>264</v>
       </c>
       <c r="B115" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="C115" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
@@ -5401,10 +5429,10 @@
         <v>264</v>
       </c>
       <c r="B116" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="C116" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -5415,10 +5443,10 @@
         <v>264</v>
       </c>
       <c r="B117" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C117" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
@@ -5429,10 +5457,10 @@
         <v>264</v>
       </c>
       <c r="B118" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="C118" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -5443,10 +5471,10 @@
         <v>264</v>
       </c>
       <c r="B119" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="C119" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -5457,10 +5485,10 @@
         <v>264</v>
       </c>
       <c r="B120" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="C120" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
@@ -5471,10 +5499,10 @@
         <v>264</v>
       </c>
       <c r="B121" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="C121" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -5485,10 +5513,10 @@
         <v>264</v>
       </c>
       <c r="B122" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="C122" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
@@ -5499,10 +5527,10 @@
         <v>264</v>
       </c>
       <c r="B123" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="C123" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="D123" s="4">
         <v>96</v>
@@ -5513,10 +5541,10 @@
         <v>264</v>
       </c>
       <c r="B124" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="C124" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="D124" s="4">
         <v>0</v>
@@ -5527,10 +5555,10 @@
         <v>264</v>
       </c>
       <c r="B125" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="C125" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="D125" s="4">
         <v>24</v>
@@ -5541,10 +5569,10 @@
         <v>264</v>
       </c>
       <c r="B126" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="C126" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="D126" s="4">
         <v>6</v>
@@ -5555,10 +5583,10 @@
         <v>264</v>
       </c>
       <c r="B127" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="C127" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="D127" s="4">
         <v>105</v>
@@ -5569,10 +5597,10 @@
         <v>264</v>
       </c>
       <c r="B128" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="C128" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="D128" s="4">
         <v>32</v>
@@ -5583,10 +5611,10 @@
         <v>264</v>
       </c>
       <c r="B129" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="C129" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="D129" s="4">
         <v>0</v>
@@ -5597,10 +5625,10 @@
         <v>264</v>
       </c>
       <c r="B130" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="C130" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="D130" s="4">
         <v>8</v>
@@ -5611,10 +5639,10 @@
         <v>264</v>
       </c>
       <c r="B131" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="C131" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="D131" s="4">
         <v>2</v>
@@ -5625,10 +5653,10 @@
         <v>264</v>
       </c>
       <c r="B132" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="C132" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="D132" s="4">
         <v>35</v>
@@ -5639,10 +5667,10 @@
         <v>264</v>
       </c>
       <c r="B133" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="C133" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="D133" s="4">
         <v>32</v>
@@ -5653,10 +5681,10 @@
         <v>264</v>
       </c>
       <c r="B134" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="C134" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="D134" s="4">
         <v>0</v>
@@ -5667,10 +5695,10 @@
         <v>264</v>
       </c>
       <c r="B135" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="C135" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="D135" s="4">
         <v>8</v>
@@ -5681,10 +5709,10 @@
         <v>264</v>
       </c>
       <c r="B136" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="C136" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="D136" s="4">
         <v>2</v>
@@ -5695,10 +5723,10 @@
         <v>264</v>
       </c>
       <c r="B137" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="C137" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="D137" s="4">
         <v>35</v>
@@ -5709,10 +5737,10 @@
         <v>264</v>
       </c>
       <c r="B138" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="C138" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="D138" s="4">
         <v>32</v>
@@ -5723,10 +5751,10 @@
         <v>264</v>
       </c>
       <c r="B139" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="C139" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="D139" s="4">
         <v>0</v>
@@ -5737,10 +5765,10 @@
         <v>264</v>
       </c>
       <c r="B140" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="C140" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="D140" s="4">
         <v>8</v>
@@ -5751,10 +5779,10 @@
         <v>264</v>
       </c>
       <c r="B141" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="C141" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="D141" s="4">
         <v>2</v>
@@ -5765,10 +5793,10 @@
         <v>264</v>
       </c>
       <c r="B142" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="C142" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="D142" s="4">
         <v>35</v>

--- a/backend/v1.0/mockDB/Devices_test.xlsx
+++ b/backend/v1.0/mockDB/Devices_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/project-cali/backend/v1.0/mockDB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sarango_uco_edu_co/Documents/Documents/GitHub/backend/v1.0/mockDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{F11D2FAA-D1D8-49CA-900D-B06590509D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F16179F4-699E-4145-BEE5-CBE68AE8CD7D}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{F11D2FAA-D1D8-49CA-900D-B06590509D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C8EA7B6-8DE6-436A-9B86-FD859D2A6CD9}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$227</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$E$104</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1605,7 +1606,7 @@
     <t>MPH</t>
   </si>
   <si>
-    <t>Porporción de agua en la mezcla</t>
+    <t>Proporción de agua en la mezcla</t>
   </si>
 </sst>
 </file>
@@ -1706,7 +1707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1715,18 +1716,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1742,6 +1739,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5506,10 +5507,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC6A87F-DC24-4160-97E1-A28B2228F3C7}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5519,19 +5521,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>301</v>
       </c>
     </row>
@@ -5545,1748 +5547,1755 @@
       <c r="C2" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="5">
         <v>30</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="5">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="5">
         <v>10</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="5" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="5">
         <v>2.4</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="5">
         <v>35</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="5">
         <v>35</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="5">
         <v>7</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="5">
         <v>45</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="5">
         <v>30</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="5" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="5">
         <v>500</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="5">
         <v>5</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="5">
         <v>1000</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="5" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="5">
         <v>40</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="5">
         <v>4</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="5" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="B16" s="13" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="11">
         <v>80</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="11" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <v>4</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="11" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="11">
         <v>5</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="11">
         <v>0.5</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="11" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="11">
         <v>40.479999999999997</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="11" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="11">
         <v>5.29</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="11" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="11">
         <v>29.66</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="11" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="11">
         <v>1.37</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="11" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="11">
         <v>0.21099999999999999</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="11" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="11">
         <v>1000</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="11" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="11">
         <v>4</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="11" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="11">
         <v>5</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="11" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="11">
         <v>0.5</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="11" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="11">
         <v>40.479999999999997</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="11" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="11">
         <v>5.29</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="11" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="11">
         <v>29.66</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="11" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="11">
         <v>1.37</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="11" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B33" s="13" t="s">
+      <c r="A33" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="11">
         <v>0.21099999999999999</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="11" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B34" s="13" t="s">
+      <c r="A34" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="11">
         <v>1000</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="11" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="11">
         <v>4</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="11" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B36" s="13" t="s">
+      <c r="A36" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="11">
         <v>5</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="11" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B37" s="13" t="s">
+      <c r="A37" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="11">
         <v>0.5</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="11" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B38" s="13" t="s">
+      <c r="A38" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="11">
         <v>40.479999999999997</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="11" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B39" s="13" t="s">
+      <c r="A39" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="11">
         <v>5.29</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="11" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B40" s="13" t="s">
+      <c r="A40" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="11">
         <v>29.66</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="11" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B41" s="13" t="s">
+      <c r="A41" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="11">
         <v>1.37</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="11" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B42" s="13" t="s">
+      <c r="A42" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="11">
         <v>0.21099999999999999</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="11" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B43" s="13" t="s">
+      <c r="A43" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="11">
         <v>1000</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="11" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B44" s="13" t="s">
+      <c r="A44" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="11">
         <v>4</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="11" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B45" s="13" t="s">
+      <c r="A45" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="5">
         <v>5</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="5" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B46" s="13" t="s">
+      <c r="A46" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="5">
         <v>0.5</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="5" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B47" s="13" t="s">
+      <c r="A47" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="5">
         <v>40.479999999999997</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="5" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B48" s="13" t="s">
+      <c r="A48" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="5">
         <v>5.29</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="5" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B49" s="13" t="s">
+      <c r="A49" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="5">
         <v>29.66</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="5" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B50" s="13" t="s">
+      <c r="A50" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="5">
         <v>1.37</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="5" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B51" s="13" t="s">
+      <c r="A51" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="5">
         <v>0.21099999999999999</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="5" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B52" s="13" t="s">
+      <c r="A52" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="5">
         <v>1000</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="5" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B53" s="7" t="s">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="5">
         <v>0</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B54" s="7" t="s">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="5">
         <v>0</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B55" s="7" t="s">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="5">
         <v>30</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B56" s="7" t="s">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="5">
         <v>100</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B57" s="13" t="s">
+      <c r="A57" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="5">
         <v>2.4</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="5" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B58" s="13" t="s">
+      <c r="A58" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="5">
         <v>5</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="5" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B59" s="13" t="s">
+      <c r="A59" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="5">
         <v>10</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="5" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B60" s="7" t="s">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="5">
         <v>2.4</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B61" s="7" t="s">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="5">
         <v>35</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B62" s="7" t="s">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="5">
         <v>35</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B63" s="7" t="s">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="5">
         <v>7</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B64" s="7" t="s">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="5">
         <v>45</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B65" s="7" t="s">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="5">
         <v>30</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="5" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B66" s="7" t="s">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="5">
         <v>500</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B67" s="7" t="s">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="5">
         <v>5</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B68" s="7" t="s">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="5">
         <v>1000</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="5" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B69" s="7" t="s">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="5">
         <v>40</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B70" s="7" t="s">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="5">
         <v>0</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B71" s="7" t="s">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D71" s="5">
+        <v>0</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D72" s="5">
+        <v>30</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D73" s="5">
+        <v>100</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D74" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D75" s="5">
+        <v>5</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D76" s="5">
+        <v>10</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D77" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D78" s="5">
+        <v>30</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D79" s="5">
+        <v>0</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="D80" s="5">
+        <v>45</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D81" s="5">
+        <v>30</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D82" s="5">
+        <v>500</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D83" s="5">
+        <v>5</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D84" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D85" s="5">
+        <v>10</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D86" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="D71" s="13">
+      <c r="C87" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D87" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D88" s="5">
         <v>0</v>
       </c>
-      <c r="E71" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B72" s="7" t="s">
+      <c r="E88" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D89" s="5">
+        <v>0</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D90" s="5">
+        <v>0</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D91" s="5">
+        <v>0</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D92" s="5">
+        <v>0</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D93" s="5">
+        <v>0</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D94" s="5">
+        <v>0</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="D72" s="13">
-        <v>30</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="D73" s="13">
+      <c r="C95" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D95" s="5">
+        <v>0</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D96" s="5">
+        <v>0</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D97" s="5">
+        <v>1</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D98" s="5">
+        <v>1</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D99" s="5">
+        <v>1</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="D100" s="5">
         <v>100</v>
       </c>
-      <c r="E73" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="D74" s="13">
-        <v>2.4</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="D75" s="13">
-        <v>5</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D76" s="13">
-        <v>10</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D77" s="13">
-        <v>2.4</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="D78" s="13">
-        <v>30</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="D79" s="13">
+      <c r="E100" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="D101" s="5">
+        <v>60</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="D102" s="5">
         <v>0</v>
       </c>
-      <c r="E79" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="D80" s="13">
-        <v>45</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="D81" s="13">
-        <v>30</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="D82" s="13">
-        <v>500</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="D83" s="13">
-        <v>5</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="D84" s="13">
-        <v>1000</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="D85" s="13">
-        <v>10</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="D86" s="13">
-        <v>0.37</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D87" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="D88" s="13">
-        <v>0</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="D89" s="13">
-        <v>0</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D90" s="13">
-        <v>0</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="D91" s="13">
-        <v>0</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="D92" s="13">
-        <v>0</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="D93" s="13">
-        <v>0</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="D94" s="13">
-        <v>0</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="D95" s="13">
-        <v>0</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="D96" s="13">
-        <v>0</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="D97" s="13">
-        <v>1</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="D98" s="13">
-        <v>1</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="D99" s="13">
-        <v>1</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="D100" s="13">
-        <v>100</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B101" s="7" t="s">
+      <c r="E102" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="D101" s="13">
-        <v>60</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B102" s="7" t="s">
+      <c r="C103" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="D103" s="5">
+        <v>1</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C102" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="D102" s="13">
-        <v>0</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="D103" s="13">
-        <v>1</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="D104" s="13">
-        <v>1</v>
-      </c>
-      <c r="E104" s="10" t="s">
+      <c r="D104" s="5">
+        <v>1</v>
+      </c>
+      <c r="E104" s="5" t="s">
         <v>518</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E104" xr:uid="{6DC6A87F-DC24-4160-97E1-A28B2228F3C7}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="interfaz"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
